--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail14 Features.xlsx
@@ -6872,7 +6872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6883,29 +6883,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6926,115 +6924,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -7051,72 +7039,66 @@
         <v>2.141471467110592e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.03129455725962878</v>
+        <v>7.053130116186753e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.218938076877089</v>
+        <v>1.732290416427513e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.053130116186753e-07</v>
+        <v>-0.01665627228792615</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.732290416427513e-06</v>
+        <v>0.1488389291068664</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01665627228792615</v>
+        <v>0.02238563996119682</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1488389291068664</v>
+        <v>1.745850582242355</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02238563996119682</v>
+        <v>1.324823486251839</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.794446856855755</v>
+        <v>27.73361008875276</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.324823486251839</v>
+        <v>3.194260589088739e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>27.73361008875276</v>
+        <v>3396570996.441874</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.194260589088739e-16</v>
+        <v>3.213407030217925e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3396570996.441874</v>
+        <v>3685.120867789689</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.213407030217925e-08</v>
+        <v>1.581928738016704e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3685.120867789689</v>
+        <v>7.978462618619836</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1.581928738016704e-05</v>
+        <v>1.462426144911384</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.978462618619836</v>
+        <v>0.001006990433838794</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.462426144911384</v>
+        <v>8.142807633259546</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.001006990433838794</v>
+        <v>0.9624176697672082</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.142807633259546</v>
+        <v>0.8467600860883935</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9624176697672082</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8467600860883935</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>8.993572661661213</v>
       </c>
     </row>
@@ -7131,72 +7113,66 @@
         <v>2.188883584233816e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.02392153025639228</v>
+        <v>7.126323634691552e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.246126432974408</v>
+        <v>1.727279028874344e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.126323634691552e-07</v>
+        <v>-0.02882808698869339</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.727279028874344e-06</v>
+        <v>0.1095098692728013</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02882808698869339</v>
+        <v>0.01279880473982398</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1095098692728013</v>
+        <v>1.740321029183523</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01279880473982398</v>
+        <v>1.319189382052129</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.789845043456655</v>
+        <v>27.76998234689892</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.319189382052129</v>
+        <v>3.185898582718632e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>27.76998234689892</v>
+        <v>3404730164.643633</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.185898582718632e-16</v>
+        <v>3.20568221155379e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3404730164.643633</v>
+        <v>3693.153370785239</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.20568221155379e-08</v>
+        <v>1.206134601766471e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3693.153370785239</v>
+        <v>8.743165955689911</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1.206134601766471e-05</v>
+        <v>1.273008524973243</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.743165955689911</v>
+        <v>0.0009220048817628373</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.273008524973243</v>
+        <v>8.260158111639152</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0009220048817628373</v>
+        <v>0.9627396129711844</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.260158111639152</v>
+        <v>0.6957849913149624</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9627396129711844</v>
+        <v>5</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6957849913149624</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>9.527300808356774</v>
       </c>
     </row>
@@ -7211,72 +7187,66 @@
         <v>2.234566185717563e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.0488679206025335</v>
+        <v>7.19391420709866e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.26942631165088</v>
+        <v>1.719889338500391e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.19391420709866e-07</v>
+        <v>-0.03734408250299975</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.719889338500391e-06</v>
+        <v>0.08027325832341735</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03734408250299975</v>
+        <v>0.007826354464590042</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.08027325832341735</v>
+        <v>1.738119135945346</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.007826354464590042</v>
+        <v>1.316051942782476</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.788413298661388</v>
+        <v>27.84900217150246</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.316051942782476</v>
+        <v>3.167844651426566e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>27.84900217150246</v>
+        <v>3423754389.126225</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.167844651426566e-16</v>
+        <v>3.187828061308018e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3423754389.126225</v>
+        <v>3713.377315225079</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.187828061308018e-08</v>
+        <v>1.08990922139282e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3713.377315225079</v>
+        <v>8.603420014829396</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1.08990922139282e-05</v>
+        <v>1.27856173270905</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.603420014829396</v>
+        <v>0.0008067381186037528</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.27856173270905</v>
+        <v>8.337796945202987</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0008067381186037528</v>
+        <v>0.9628423108682541</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.337796945202987</v>
+        <v>0.7903222538944056</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9628423108682541</v>
+        <v>5</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7903222538944056</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>9.758683722489248</v>
       </c>
     </row>
@@ -7291,72 +7261,66 @@
         <v>2.268414234475936e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.09000698106270538</v>
+        <v>7.25508843627174e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.265272982857513</v>
+        <v>1.710760132960485e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.25508843627174e-07</v>
+        <v>-0.04333817496118433</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.710760132960485e-06</v>
+        <v>0.0590661306928384</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04333817496118433</v>
+        <v>0.005360685603917283</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.0590661306928384</v>
+        <v>1.73512755621081</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.005360685603917283</v>
+        <v>1.307554150470577</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.787430504187856</v>
+        <v>28.04966530547922</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.307554150470577</v>
+        <v>3.122682195062758e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>28.04966530547922</v>
+        <v>3472164720.39291</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.122682195062758e-16</v>
+        <v>3.143279500149708e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3472164720.39291</v>
+        <v>3764.683122823274</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.143279500149708e-08</v>
+        <v>1.066052002993158e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3764.683122823274</v>
+        <v>7.919427726425366</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1.066052002993158e-05</v>
+        <v>1.298189217010585</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.919427726425366</v>
+        <v>0.0006685994114717339</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.298189217010585</v>
+        <v>8.400930133970395</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0006685994114717339</v>
+        <v>0.9633468432793392</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.400930133970395</v>
+        <v>0.8192599890506224</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9633468432793392</v>
+        <v>3</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8192599890506224</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>9.793637159337651</v>
       </c>
     </row>
@@ -7371,72 +7335,66 @@
         <v>2.287001406320052e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1334098314817489</v>
+        <v>7.310936722943103e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.239661893829267</v>
+        <v>1.700324150072138e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.310936722943103e-07</v>
+        <v>-0.04803471487281619</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.700324150072138e-06</v>
+        <v>0.04102120019205938</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04803471487281619</v>
+        <v>0.003986508337155732</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.04102120019205938</v>
+        <v>1.732710732966843</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.003986508337155732</v>
+        <v>1.302102043293019</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.787280255733084</v>
+        <v>28.63952884345704</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.302102043293019</v>
+        <v>2.995376484931085e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>28.63952884345704</v>
+        <v>3619142964.983195</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.995376484931085e-16</v>
+        <v>3.015465360631257e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>3619142964.983195</v>
+        <v>3923.402769730059</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.015465360631257e-08</v>
+        <v>1.36966768192335e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3923.402769730059</v>
+        <v>7.579263851274575</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1.36966768192335e-05</v>
+        <v>1.891692757964892</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.579263851274575</v>
+        <v>0.0007868088943047066</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.891692757964892</v>
+        <v>8.371165500795701</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0007868088943047066</v>
+        <v>0.9628187583114775</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.371165500795701</v>
+        <v>0.787217350474501</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9628187583114775</v>
+        <v>3</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.787217350474501</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>9.573236503988142</v>
       </c>
     </row>
@@ -7451,72 +7409,66 @@
         <v>2.289562126782422e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1701770234365745</v>
+        <v>7.364932564972479e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.20763963524056</v>
+        <v>1.688884753058555e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.364932564972479e-07</v>
+        <v>-0.05163664805678712</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.688884753058555e-06</v>
+        <v>0.0259183329347172</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05163664805678712</v>
+        <v>0.003337047185534756</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.0259183329347172</v>
+        <v>1.732798478343797</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.003337047185534756</v>
+        <v>1.297374993173003</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.784844375104849</v>
+        <v>29.67854964251257</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.297374993173003</v>
+        <v>2.789316570026814e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>29.67854964251257</v>
+        <v>3885762445.343679</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.789316570026814e-16</v>
+        <v>2.808492957800414e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>3885762445.343679</v>
+        <v>4211.630867925439</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.808492957800414e-08</v>
+        <v>3.179641682412913e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>4211.630867925439</v>
+        <v>8.534656989485253</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.179641682412913e-05</v>
+        <v>2.187598432205796</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.534656989485253</v>
+        <v>0.002316062763859837</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2.187598432205796</v>
+        <v>7.941569841298954</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.002316062763859837</v>
+        <v>0.9636876495103456</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.941569841298954</v>
+        <v>0.7951535166496823</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9636876495103456</v>
+        <v>29</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.7951535166496823</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>8.659084352194721</v>
       </c>
     </row>
@@ -7531,72 +7483,66 @@
         <v>2.278667341921306e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1969205591714877</v>
+        <v>7.417830247342169e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.18270809988048</v>
+        <v>1.676799847185549e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.417830247342169e-07</v>
+        <v>-0.05390277315556238</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.676799847185549e-06</v>
+        <v>0.01736799133950463</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05390277315556238</v>
+        <v>0.00320731612368962</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.01736799133950463</v>
+        <v>1.733634475298666</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.00320731612368962</v>
+        <v>1.2912753988165</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.784591459947881</v>
+        <v>31.84469422850103</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.2912753988165</v>
+        <v>2.422752150488602e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>31.84469422850103</v>
+        <v>4473098687.202279</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.422752150488602e-16</v>
+        <v>2.439706919060413e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>4473098687.202279</v>
+        <v>4847.590742531257</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.439706919060413e-08</v>
+        <v>0.0001045968716271874</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>4847.590742531257</v>
+        <v>13.25052832906737</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001045968716271874</v>
+        <v>1.086713337969911</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>13.25052832906737</v>
+        <v>0.01836475273578676</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.086713337969911</v>
+        <v>5.215708828336447</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01836475273578676</v>
+        <v>0.9631920861001542</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.215708828336447</v>
+        <v>0.8386220889755597</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9631920861001542</v>
+        <v>31</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8386220889755597</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>4.707262246447212</v>
       </c>
     </row>
@@ -7611,72 +7557,66 @@
         <v>2.258652401207916e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2154940533843932</v>
+        <v>7.465606485244275e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.168830290614437</v>
+        <v>1.664416090926316e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.465606485244275e-07</v>
+        <v>-0.05508361821803974</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.664416090926316e-06</v>
+        <v>0.01502236612930129</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05508361821803974</v>
+        <v>0.003260240107045676</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.01502236612930129</v>
+        <v>1.919760426952628</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.003260240107045676</v>
+        <v>2.02897364710613</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.947797588978658</v>
+        <v>5.305487983309407</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.02897364710613</v>
+        <v>2.823958036183675e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.305487983309407</v>
+        <v>2663897263.482726</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.823958036183675e-17</v>
+        <v>4.509838792396066e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2663897263.482726</v>
+        <v>200.3979074235299</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.509838792396066e-08</v>
+        <v>0.0001509250679448898</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>200.3979074235299</v>
+        <v>11.39448770432112</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001509250679448898</v>
+        <v>1.282548411471854</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.39448770432112</v>
+        <v>0.01959525810196001</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.282548411471854</v>
+        <v>3.885837039687851</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01959525810196001</v>
+        <v>0.963803367573569</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.885837039687851</v>
+        <v>1.144538860191718</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.963803367573569</v>
+        <v>28</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.144538860191718</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>2.449556272363736</v>
       </c>
     </row>
@@ -7691,72 +7631,66 @@
         <v>2.233075850280511e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2292545737939524</v>
+        <v>7.451556123651239e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.163730390855452</v>
+        <v>1.651974488647531e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.451556123651239e-07</v>
+        <v>-0.05561181003550508</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.651974488647531e-06</v>
+        <v>0.01536135637389937</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05561181003550508</v>
+        <v>0.003328908609029106</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.01536135637389937</v>
+        <v>1.915889226985363</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003328908609029106</v>
+        <v>2.076166664306279</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.94117138388405</v>
+        <v>5.905638116077607</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.076166664306279</v>
+        <v>1.582232240537742e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.905638116077607</v>
+        <v>4495843020.161297</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.582232240537742e-17</v>
+        <v>2.656350233856311e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>4495843020.161297</v>
+        <v>319.810344449075</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.656350233856311e-08</v>
+        <v>0.0001238305427744451</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>319.810344449075</v>
+        <v>9.457176626022532</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001238305427744451</v>
+        <v>1.179547856869112</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.457176626022532</v>
+        <v>0.0110751795797463</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.179547856869112</v>
+        <v>3.902325363656686</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0110751795797463</v>
+        <v>0.9632016142398767</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.902325363656686</v>
+        <v>1.140206863883995</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9632016142398767</v>
+        <v>37</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.140206863883995</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>2.402116823173943</v>
       </c>
     </row>
@@ -7771,72 +7705,66 @@
         <v>2.204180949093203e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2406212327028582</v>
+        <v>7.383966358983589e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.164235751281155</v>
+        <v>1.639606938472217e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.383966358983589e-07</v>
+        <v>-0.05583119877794677</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.639606938472217e-06</v>
+        <v>0.01617075712924807</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05583119877794677</v>
+        <v>0.003378750384263547</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.01617075712924807</v>
+        <v>1.906924385529777</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003378750384263547</v>
+        <v>2.022346510954447</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.932620557226207</v>
+        <v>5.922378625872275</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.022346510954447</v>
+        <v>1.85898070961691e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.922378625872275</v>
+        <v>3791630222.67143</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.85898070961691e-17</v>
+        <v>3.154201836079744e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>3791630222.67143</v>
+        <v>267.255613394228</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.154201836079744e-08</v>
+        <v>0.0001022080030574602</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>267.255613394228</v>
+        <v>7.820429648212141</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001022080030574602</v>
+        <v>1.248674412283036</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.820429648212141</v>
+        <v>0.006250951511955984</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.248674412283036</v>
+        <v>4.158287631777913</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006250951511955984</v>
+        <v>0.9628450662963166</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.158287631777913</v>
+        <v>1.198947957093563</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9628450662963166</v>
+        <v>37</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.198947957093563</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>2.816097213143153</v>
       </c>
     </row>
@@ -7851,72 +7779,66 @@
         <v>2.173425946594841e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.2508523188746106</v>
+        <v>7.295900615909645e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.167852823653729</v>
+        <v>1.62737214544675e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.295900615909645e-07</v>
+        <v>-0.05594690022787557</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.62737214544675e-06</v>
+        <v>0.01681208561650294</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05594690022787557</v>
+        <v>0.003412733955198208</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.01681208561650294</v>
+        <v>1.908702400026685</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003412733955198208</v>
+        <v>2.088309016313153</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.934004130245944</v>
+        <v>4.551346574947019</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.088309016313153</v>
+        <v>2.762230448810561e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.551346574947019</v>
+        <v>2585649200.711971</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.762230448810561e-17</v>
+        <v>4.63619048749449e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>2585649200.711971</v>
+        <v>184.6711758598267</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.63619048749449e-08</v>
+        <v>0.0001210558754535698</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>184.6711758598267</v>
+        <v>11.00281157044859</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001210558754535698</v>
+        <v>1.685820826989604</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.00281157044859</v>
+        <v>0.01465524974350516</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.685820826989604</v>
+        <v>4.197458245141853</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01465524974350516</v>
+        <v>0.9640277196988734</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.197458245141853</v>
+        <v>1.217624899181823</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9640277196988734</v>
+        <v>37</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.217624899181823</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>2.909868341476752</v>
       </c>
     </row>
@@ -7931,72 +7853,66 @@
         <v>2.14177084748569e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2605207647649328</v>
+        <v>7.199771048892885e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.172884219190455</v>
+        <v>1.615291687767807e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.199771048892885e-07</v>
+        <v>-0.05602636028241498</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.615291687767807e-06</v>
+        <v>0.01724403073580755</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05602636028241498</v>
+        <v>0.003436269645523527</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.01724403073580755</v>
+        <v>1.908865668254266</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003436269645523527</v>
+        <v>2.118919379476162</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.932687168791357</v>
+        <v>4.284545035079813</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.118919379476162</v>
+        <v>3.04239118193922e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.284545035079813</v>
+        <v>2333613949.335586</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.04239118193922e-17</v>
+        <v>5.12391537602996e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>2333613949.335586</v>
+        <v>165.6811414494679</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.12391537602996e-08</v>
+        <v>0.0001122748708057881</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>165.6811414494679</v>
+        <v>9.025183140821943</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001122748708057881</v>
+        <v>1.403168276348715</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.025183140821943</v>
+        <v>0.009145229548815277</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.403168276348715</v>
+        <v>3.59738530734923</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.009145229548815277</v>
+        <v>0.9641733120448185</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.59738530734923</v>
+        <v>1.226252049415149</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9641733120448185</v>
+        <v>37</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.226252049415149</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.525079537110614</v>
       </c>
     </row>
@@ -8011,72 +7927,66 @@
         <v>2.109822066519482e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2699597603761075</v>
+        <v>7.09983287813622e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.178152257906318</v>
+        <v>1.603374899989464e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.09983287813622e-07</v>
+        <v>-0.05608575647738491</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.603374899989464e-06</v>
+        <v>0.01751451138156798</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05608575647738491</v>
+        <v>0.003452272166027735</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.01751451138156798</v>
+        <v>1.912936360562368</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003452272166027735</v>
+        <v>2.164158358017438</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.938417342929662</v>
+        <v>4.304474336014031</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.164158358017438</v>
+        <v>3.012059276061743e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.304474336014031</v>
+        <v>2507815201.672222</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.012059276061743e-17</v>
+        <v>4.761733856998605e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>2507815201.672222</v>
+        <v>189.4325369752193</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.761733856998605e-08</v>
+        <v>0.0001345149688869649</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>189.4325369752193</v>
+        <v>9.321318563428608</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001345149688869649</v>
+        <v>1.102878527619412</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.321318563428608</v>
+        <v>0.01168759937922234</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.102878527619412</v>
+        <v>3.045517302898973</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01168759937922234</v>
+        <v>0.9637623581718374</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.045517302898973</v>
+        <v>1.209343091894891</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9637623581718374</v>
+        <v>37</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.209343091894891</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.8643723997293524</v>
       </c>
     </row>
@@ -8091,72 +8001,66 @@
         <v>2.078012811788528e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.279446519142958</v>
+        <v>6.997182055250695e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.182626985554806</v>
+        <v>1.591627187488126e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.997182055250695e-07</v>
+        <v>-0.05612127101582596</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.591627187488126e-06</v>
+        <v>0.01765091979916312</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05612127101582596</v>
+        <v>0.00346101490671355</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.01765091979916312</v>
+        <v>1.908482935739537</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.00346101490671355</v>
+        <v>2.210439806955704</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.935322560048683</v>
+        <v>4.07959723891332</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.210439806955704</v>
+        <v>2.833584457401672e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.07959723891332</v>
+        <v>2628273585.371298</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.833584457401672e-17</v>
+        <v>4.579682339925197e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>2628273585.371298</v>
+        <v>195.7389716579534</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.579682339925197e-08</v>
+        <v>0.0001466449484400582</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>195.7389716579534</v>
+        <v>9.652703751329847</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001466449484400582</v>
+        <v>1.181732588310306</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.652703751329847</v>
+        <v>0.01366359756857882</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.181732588310306</v>
+        <v>2.904314044343565</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01366359756857882</v>
+        <v>0.9643752546728245</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.904314044343565</v>
+        <v>1.205293432563202</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9643752546728245</v>
+        <v>41</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.205293432563202</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.6789083965648267</v>
       </c>
     </row>
@@ -8171,72 +8075,66 @@
         <v>2.046602380974171e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2891718889434756</v>
+        <v>6.8957363055047e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.185522562373373</v>
+        <v>1.580050351370559e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.8957363055047e-07</v>
+        <v>-0.0561564777278515</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.580050351370559e-06</v>
+        <v>0.01773547995093426</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0561564777278515</v>
+        <v>0.00346796197718311</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.01773547995093426</v>
+        <v>1.90396476463034</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.00346796197718311</v>
+        <v>2.258122339855438</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.932825305235067</v>
+        <v>4.198109968884252</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.258122339855438</v>
+        <v>2.675858343390075e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.198109968884252</v>
+        <v>2753704135.969425</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.675858343390075e-17</v>
+        <v>4.363682491558334e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>2753704135.969425</v>
+        <v>202.9073002359533</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.363682491558334e-08</v>
+        <v>0.0001390993234832179</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>202.9073002359533</v>
+        <v>8.765679855534765</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001390993234832179</v>
+        <v>1.207499244689358</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.765679855534765</v>
+        <v>0.01068799465554822</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.207499244689358</v>
+        <v>3.111308299805882</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01068799465554822</v>
+        <v>0.9642002507727021</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.111308299805882</v>
+        <v>1.204678916745517</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9642002507727021</v>
+        <v>69</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.204678916745517</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.7014929807543078</v>
       </c>
     </row>
@@ -8251,72 +8149,66 @@
         <v>2.015614711754389e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2990657983358999</v>
+        <v>6.798657545997062e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.186701975661001</v>
+        <v>1.568638634222923e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.798657545997062e-07</v>
+        <v>-0.05621709711413419</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.568638634222923e-06</v>
+        <v>0.017834898900732</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05621709711413419</v>
+        <v>0.003478310248743088</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.017834898900732</v>
+        <v>1.912031115346705</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003478310248743088</v>
+        <v>2.191941483308778</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.938681735524578</v>
+        <v>4.340834018677938</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.191941483308778</v>
+        <v>2.502789821782566e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.340834018677938</v>
+        <v>2899629055.271888</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.502789821782566e-17</v>
+        <v>4.154178415468489e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>2899629055.271888</v>
+        <v>210.4307804477345</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.154178415468489e-08</v>
+        <v>0.0001354363263923773</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>210.4307804477345</v>
+        <v>7.726121187662422</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001354363263923773</v>
+        <v>1.651640792931343</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.726121187662422</v>
+        <v>0.008084593670786049</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.651640792931343</v>
+        <v>3.392897726544475</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008084593670786049</v>
+        <v>0.9635364381947332</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.392897726544475</v>
+        <v>1.208137477220387</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9635364381947332</v>
+        <v>110</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.208137477220387</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.8268624299060161</v>
       </c>
     </row>
@@ -8331,72 +8223,66 @@
         <v>1.985034179567269e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3090629426071929</v>
+        <v>6.703290544151862e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.186118751307669</v>
+        <v>1.557387479379707e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.703290544151862e-07</v>
+        <v>-0.05628234264481118</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.557387479379707e-06</v>
+        <v>0.01793832929623958</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05628234264481118</v>
+        <v>0.003489363544983588</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.01793832929623958</v>
+        <v>1.911530405110837</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003489363544983588</v>
+        <v>2.19769666172271</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.937490194411344</v>
+        <v>4.488204462570874</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.19769666172271</v>
+        <v>2.341129695002647e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.488204462570874</v>
+        <v>3049098037.095911</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.341129695002647e-17</v>
+        <v>3.937247492314411e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>3049098037.095911</v>
+        <v>217.6548005831276</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.937247492314411e-08</v>
+        <v>0.0001357470144511988</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>217.6548005831276</v>
+        <v>8.727508325156556</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001357470144511988</v>
+        <v>1.489581768671049</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.727508325156556</v>
+        <v>0.01033976885507512</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.489581768671049</v>
+        <v>3.380571554600324</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01033976885507512</v>
+        <v>0.9619943841181166</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.380571554600324</v>
+        <v>1.23570655733196</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9619943841181166</v>
+        <v>110</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.23570655733196</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.9096397516245853</v>
       </c>
     </row>
@@ -8411,72 +8297,66 @@
         <v>1.954792492265613e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3190655390050091</v>
+        <v>6.611152753525005e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.183885064472631</v>
+        <v>1.546292193826084e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.611152753525005e-07</v>
+        <v>-0.05636744704249452</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.546292193826084e-06</v>
+        <v>0.01808284789825047</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05636744704249452</v>
+        <v>0.003504159362632994</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.01808284789825047</v>
+        <v>1.913555932767422</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003504159362632994</v>
+        <v>2.176886403460517</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.941175102322847</v>
+        <v>4.748787770809168</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.176886403460517</v>
+        <v>2.091246457689541e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.748787770809168</v>
+        <v>3394683044.456332</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.091246457689541e-17</v>
+        <v>3.531888922989475e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>3394683044.456332</v>
+        <v>240.99258532227</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.531888922989475e-08</v>
+        <v>0.0001424055164789967</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>240.99258532227</v>
+        <v>10.08418299780341</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001424055164789967</v>
+        <v>1.08235193795165</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.08418299780341</v>
+        <v>0.01448132330967438</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.08235193795165</v>
+        <v>3.032956736544827</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01448132330967438</v>
+        <v>0.9601859264922661</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.032956736544827</v>
+        <v>1.223057491578968</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9601859264922661</v>
+        <v>114</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.223057491578968</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.8215935435638132</v>
       </c>
     </row>
@@ -8491,72 +8371,66 @@
         <v>1.924853451822529e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3290590374780881</v>
+        <v>6.517238159851048e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.180000633671324</v>
+        <v>1.535351412643819e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6.517238159851048e-07</v>
+        <v>-0.05643105734891673</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.535351412643819e-06</v>
+        <v>0.01821581404150384</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05643105734891673</v>
+        <v>0.003516146751173419</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.01821581404150384</v>
+        <v>1.914571489061276</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003516146751173419</v>
+        <v>2.195264355366626</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.941096054945557</v>
+        <v>4.905412182272919</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.195264355366626</v>
+        <v>1.811028934766432e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.905412182272919</v>
+        <v>3838965997.742942</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.811028934766432e-17</v>
+        <v>3.119243747295866e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>3838965997.742942</v>
+        <v>266.9032856728562</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.119243747295866e-08</v>
+        <v>0.0001517122648917406</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>266.9032856728562</v>
+        <v>10.30993575783888</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001517122648917406</v>
+        <v>1.105146751000544</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.30993575783888</v>
+        <v>0.01612622111158905</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.105146751000544</v>
+        <v>2.880682318874647</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01612622111158905</v>
+        <v>0.9612313738315219</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.880682318874647</v>
+        <v>1.223471136729958</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9612313738315219</v>
+        <v>114</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.223471136729958</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.7151391357682302</v>
       </c>
     </row>
@@ -8571,72 +8445,66 @@
         <v>1.895257245093594e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3392183962704425</v>
+        <v>6.421306019740509e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.174086331167356</v>
+        <v>1.524569254071018e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6.421306019740509e-07</v>
+        <v>-0.05646857316583133</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.524569254071018e-06</v>
+        <v>0.01834833404460211</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05646857316583133</v>
+        <v>0.003525235076778147</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.01834833404460211</v>
+        <v>1.921241964119621</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003525235076778147</v>
+        <v>2.411666316838701</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.946008743311949</v>
+        <v>4.963208244210579</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.411666316838701</v>
+        <v>1.769096016557536e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.963208244210579</v>
+        <v>3949549216.571095</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.769096016557536e-17</v>
+        <v>3.038797631012006e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>3949549216.571095</v>
+        <v>275.9602087239894</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.038797631012006e-08</v>
+        <v>0.0001495119059008323</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>275.9602087239894</v>
+        <v>9.625568979450104</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001495119059008323</v>
+        <v>1.166158571234997</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.625568979450104</v>
+        <v>0.01385251403813549</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.166158571234997</v>
+        <v>3.049858431592526</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01385251403813549</v>
+        <v>0.9609136105716225</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.049858431592526</v>
+        <v>1.200145796056843</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9609136105716225</v>
+        <v>114</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.200145796056843</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.7352655928775004</v>
       </c>
     </row>
@@ -8651,72 +8519,66 @@
         <v>1.865937431591692e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.349588073315911</v>
+        <v>6.327177018360618e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.166089907473783</v>
+        <v>1.51394602745258e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>6.327177018360618e-07</v>
+        <v>-0.05651484365900341</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.51394602745258e-06</v>
+        <v>0.01854416269663738</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05651484365900341</v>
+        <v>0.003537721302409548</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.01854416269663738</v>
+        <v>1.911298102858716</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003537721302409548</v>
+        <v>2.386880055584991</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.939052479772235</v>
+        <v>4.817719744466427</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.386880055584991</v>
+        <v>1.87755788114363e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.817719744466427</v>
+        <v>3689216657.739204</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.87755788114363e-17</v>
+        <v>3.246495312184372e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>3689216657.739204</v>
+        <v>255.5416273174324</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.246495312184372e-08</v>
+        <v>0.0001599373248447813</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>255.5416273174324</v>
+        <v>9.084643487453206</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001599373248447813</v>
+        <v>1.392390111805467</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.084643487453206</v>
+        <v>0.01319974693966318</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.392390111805467</v>
+        <v>3.237555224995655</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01319974693966318</v>
+        <v>0.9607707903743155</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.237555224995655</v>
+        <v>1.209759835507576</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9607707903743155</v>
+        <v>88</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.209759835507576</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.9107294428583275</v>
       </c>
     </row>
@@ -8731,72 +8593,66 @@
         <v>1.836669878139469e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3599727235822004</v>
+        <v>6.237006152499616e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.156604784548811</v>
+        <v>1.503476423784431e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.237006152499616e-07</v>
+        <v>-0.0565967559934709</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.503476423784431e-06</v>
+        <v>0.01886628455230341</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0565967559934709</v>
+        <v>0.0035590872329535</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.01886628455230341</v>
+        <v>1.911720015273728</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.0035590872329535</v>
+        <v>2.300203781791728</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.944351755969901</v>
+        <v>4.629031511194101</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.300203781791728</v>
+        <v>2.065656049144987e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.629031511194101</v>
+        <v>3412959443.507367</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.065656049144987e-17</v>
+        <v>3.508979558198246e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>3412959443.507367</v>
+        <v>240.6136516876304</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.508979558198246e-08</v>
+        <v>0.0001839978849583467</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>240.6136516876304</v>
+        <v>9.948751542032863</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001839978849583467</v>
+        <v>1.436182905114613</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.948751542032863</v>
+        <v>0.01821167959123082</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.436182905114613</v>
+        <v>3.337020858367803</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01821167959123082</v>
+        <v>0.9606764147744508</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.337020858367803</v>
+        <v>1.183431500319128</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9606764147744508</v>
+        <v>86</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.183431500319128</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>1.399501715801036</v>
       </c>
     </row>
@@ -8811,72 +8667,66 @@
         <v>1.807125535312778e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3700593831112642</v>
+        <v>6.148832733585601e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.146747338628175</v>
+        <v>1.493154762856512e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.148832733585601e-07</v>
+        <v>-0.05670853080891054</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.493154762856512e-06</v>
+        <v>0.01932782650404452</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05670853080891054</v>
+        <v>0.00358941017713844</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.01932782650404452</v>
+        <v>1.914261572120748</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.00358941017713844</v>
+        <v>2.264431278166035</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.944604775979671</v>
+        <v>4.801927225582768</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.264431278166035</v>
+        <v>2.141191173014008e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.801927225582768</v>
+        <v>3417748348.898322</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.141191173014008e-17</v>
+        <v>3.524673374797851e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>3417748348.898322</v>
+        <v>250.1126217796498</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.524673374797851e-08</v>
+        <v>0.0001901583726119965</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>250.1126217796498</v>
+        <v>13.13421722922426</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001901583726119965</v>
+        <v>1.042516636531378</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>13.13421722922426</v>
+        <v>0.03280377631170164</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.042516636531378</v>
+        <v>3.340336219712705</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.03280377631170164</v>
+        <v>0.9616830369584364</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.340336219712705</v>
+        <v>1.181575762500773</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9616830369584364</v>
+        <v>86</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.181575762500773</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>2.406631399313446</v>
       </c>
     </row>
@@ -8891,72 +8741,66 @@
         <v>1.777049133679437e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.3796911156828404</v>
+        <v>6.056324631635965e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.137501058346264</v>
+        <v>1.482982645763135e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.056324631635965e-07</v>
+        <v>-0.05680052178768348</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.482982645763135e-06</v>
+        <v>0.0199000792336061</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05680052178768348</v>
+        <v>0.003622301262240821</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.0199000792336061</v>
+        <v>1.914343661962653</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.003622301262240821</v>
+        <v>2.463544478009634</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.951048598102052</v>
+        <v>4.907980270178454</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.463544478009634</v>
+        <v>2.528190433999835e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.907980270178454</v>
+        <v>2911583001.840628</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.528190433999835e-17</v>
+        <v>4.122141418575921e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>2911583001.840628</v>
+        <v>214.3226814677633</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.122141418575921e-08</v>
+        <v>0.0002013463870514935</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>214.3226814677633</v>
+        <v>14.47666219076222</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0002013463870514935</v>
+        <v>0.9519694094314978</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>14.47666219076222</v>
+        <v>0.04219691701797872</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>0.9519694094314978</v>
+        <v>3.239882463097605</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.04219691701797872</v>
+        <v>0.9603193375749715</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.239882463097605</v>
+        <v>1.114779117681891</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9603193375749715</v>
+        <v>77</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.114779117681891</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>2.819815982297814</v>
       </c>
     </row>
@@ -8971,72 +8815,66 @@
         <v>1.746332415139206e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.3890991624039643</v>
+        <v>5.951042938807451e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.129196446339259</v>
+        <v>1.472974151179024e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>5.951042938807451e-07</v>
+        <v>-0.05679472269540233</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.472974151179024e-06</v>
+        <v>0.0205744806782433</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05679472269540233</v>
+        <v>0.00364890778495861</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.0205744806782433</v>
+        <v>1.921950028071828</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.00364890778495861</v>
+        <v>2.046724560525612</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.959014119415557</v>
+        <v>5.181460254644444</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.046724560525612</v>
+        <v>2.883795955078108e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.181460254644444</v>
+        <v>2527210654.852416</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.883795955078108e-17</v>
+        <v>4.75599079216043e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>2527210654.852416</v>
+        <v>184.1820982067435</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.75599079216043e-08</v>
+        <v>0.0002006954286037165</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>184.1820982067435</v>
+        <v>13.76684798899371</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0002006954286037165</v>
+        <v>1.028555424194987</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>13.76684798899371</v>
+        <v>0.03803702258397308</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.028555424194987</v>
+        <v>3.386768664485152</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.03803702258397308</v>
+        <v>0.9608458558492301</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.386768664485152</v>
+        <v>0.986408579405196</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9608458558492301</v>
+        <v>77</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.986408579405196</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>2.795539013567356</v>
       </c>
     </row>
@@ -9051,72 +8889,66 @@
         <v>1.714952058335323e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3989573524583432</v>
+        <v>5.827690954780925e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.121399339850993</v>
+        <v>1.46315590960699e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5.827690954780925e-07</v>
+        <v>-0.05663487584980641</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.46315590960699e-06</v>
+        <v>0.02141135892275215</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05663487584980641</v>
+        <v>0.003665886255584496</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.02141135892275215</v>
+        <v>1.919395102642262</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.003665886255584496</v>
+        <v>1.999849444601659</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.954432579888202</v>
+        <v>4.857098302977318</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.999849444601659</v>
+        <v>3.177736849049925e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.857098302977318</v>
+        <v>2254470492.682885</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.177736849049925e-17</v>
+        <v>5.328360553494626e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>2254470492.682885</v>
+        <v>161.5128352834798</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.328360553494626e-08</v>
+        <v>0.0002083843193444748</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>161.5128352834798</v>
+        <v>13.7802257882972</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0002083843193444748</v>
+        <v>1.056840721841882</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>13.7802257882972</v>
+        <v>0.0395710617144466</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.056840721841882</v>
+        <v>3.378465727428531</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.0395710617144466</v>
+        <v>0.9596709431973717</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.378465727428531</v>
+        <v>1.012405350958249</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9596709431973717</v>
+        <v>77</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.012405350958249</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>2.780107113718338</v>
       </c>
     </row>
@@ -9131,72 +8963,66 @@
         <v>1.682789356078033e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.4100923342461936</v>
+        <v>5.685027777844107e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.113511911603116</v>
+        <v>1.453559509481861e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.685027777844107e-07</v>
+        <v>-0.05630061010132299</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.453559509481861e-06</v>
+        <v>0.02254317059371963</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05630061010132299</v>
+        <v>0.003677853760811089</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.02254317059371963</v>
+        <v>1.916297255973328</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.003677853760811089</v>
+        <v>2.070453439801573</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.954217378286754</v>
+        <v>4.567955897964826</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.070453439801573</v>
+        <v>3.856002418289109e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.567955897964826</v>
+        <v>1851770193.150606</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.856002418289109e-17</v>
+        <v>6.471135495394377e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1851770193.150606</v>
+        <v>132.2243607525858</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>6.471135495394377e-08</v>
+        <v>0.0002194237756510561</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>132.2243607525858</v>
+        <v>14.15729132100383</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002194237756510561</v>
+        <v>1.028963027848024</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>14.15729132100383</v>
+        <v>0.04397886544951048</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.028963027848024</v>
+        <v>3.142336235018259</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.04397886544951048</v>
+        <v>0.9595307922668335</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.142336235018259</v>
+        <v>1.025190704777998</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9595307922668335</v>
+        <v>77</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.025190704777998</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>2.312771081139236</v>
       </c>
     </row>
@@ -9211,72 +9037,66 @@
         <v>1.649641870556828e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.4232886938294348</v>
+        <v>5.535787986014764e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.104888754717951</v>
+        <v>1.444216783106116e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.535787986014764e-07</v>
+        <v>-0.05580715145481919</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.444216783106116e-06</v>
+        <v>0.02402873169134861</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05580715145481919</v>
+        <v>0.003691683929657916</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.02402873169134861</v>
+        <v>1.909683068268604</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.003691683929657916</v>
+        <v>2.10521912694329</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.957398157813299</v>
+        <v>3.921386922995874</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.10521912694329</v>
+        <v>4.048137866954838e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.921386922995874</v>
+        <v>1663581694.537255</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4.048137866954838e-17</v>
+        <v>7.157845272754706e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1663581694.537255</v>
+        <v>112.0323795956543</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>7.157845272754706e-08</v>
+        <v>0.0002165985533166995</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>112.0323795956543</v>
+        <v>14.27055386712266</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0002165985533166995</v>
+        <v>0.9621099678771188</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>14.27055386712266</v>
+        <v>0.04411001546710123</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>0.9621099678771188</v>
+        <v>2.805635373466226</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.04411001546710123</v>
+        <v>0.9578157721732086</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.805635373466226</v>
+        <v>1.042841622133611</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9578157721732086</v>
+        <v>77</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.042841622133611</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>1.674311860267679</v>
       </c>
     </row>
@@ -9291,72 +9111,66 @@
         <v>1.615292937389667e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.4391301327258036</v>
+        <v>5.387712660197488e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.094819487124957</v>
+        <v>1.435155320991533e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.387712660197488e-07</v>
+        <v>-0.05516674150973479</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.435155320991533e-06</v>
+        <v>0.02593573101219769</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05516674150973479</v>
+        <v>0.003715849625259229</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.02593573101219769</v>
+        <v>1.910643807998996</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.003715849625259229</v>
+        <v>2.00004891966378</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.954267011050039</v>
+        <v>3.710653230652765</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.00004891966378</v>
+        <v>4.615924253140552e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.710653230652765</v>
+        <v>1431684689.408388</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>4.615924253140552e-17</v>
+        <v>8.309584104041991e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1431684689.408388</v>
+        <v>94.6135710634331</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>8.309584104041991e-08</v>
+        <v>0.0002100604142054879</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>94.6135710634331</v>
+        <v>13.53881959794265</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002100604142054879</v>
+        <v>0.9746816879614758</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>13.53881959794265</v>
+        <v>0.0385039974840651</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>0.9746816879614758</v>
+        <v>2.60541237594246</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.0385039974840651</v>
+        <v>0.9585768339530328</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.60541237594246</v>
+        <v>1.054022224935404</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9585768339530328</v>
+        <v>73</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.054022224935404</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>1.171779863976073</v>
       </c>
     </row>
@@ -9371,72 +9185,66 @@
         <v>1.57946030268016e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.4581094667057308</v>
+        <v>5.241599684560898e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.082508600420457</v>
+        <v>1.426405060426552e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.241599684560898e-07</v>
+        <v>-0.05433559303111918</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.426405060426552e-06</v>
+        <v>0.02845150006253254</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05433559303111918</v>
+        <v>0.003761574221592376</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.02845150006253254</v>
+        <v>1.906961051686401</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.003761574221592376</v>
+        <v>1.951360372205206</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.951288289441334</v>
+        <v>3.685143939872652</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.951360372205206</v>
+        <v>5.865634194830097e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.685143939872652</v>
+        <v>1148138934.201363</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.865634194830097e-17</v>
+        <v>1.036551151862791e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>1148138934.201363</v>
+        <v>77.32213976942597</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.036551151862791e-07</v>
+        <v>0.0001980072919021555</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>77.32213976942597</v>
+        <v>13.19437215239739</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001980072919021555</v>
+        <v>0.9845987864599486</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>13.19437215239739</v>
+        <v>0.03447137784406689</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>0.9845987864599486</v>
+        <v>2.706988198676257</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.03447137784406689</v>
+        <v>0.9593251009245071</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.706988198676257</v>
+        <v>1.117924320936716</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9593251009245071</v>
+        <v>45</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.117924320936716</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>1.039919260977773</v>
       </c>
     </row>
@@ -9451,72 +9259,66 @@
         <v>1.541832454425325e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.4806435069093941</v>
+        <v>5.097571330549138e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.066854547520577</v>
+        <v>1.418001457198712e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.097571330549138e-07</v>
+        <v>-0.05331184693778706</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.418001457198712e-06</v>
+        <v>0.03159165606976139</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05331184693778706</v>
+        <v>0.003839820454121009</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.03159165606976139</v>
+        <v>1.887330660421731</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.003839820454121009</v>
+        <v>1.96686290735867</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.923797778682459</v>
+        <v>3.579670960419132</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.96686290735867</v>
+        <v>5.77170565168462e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.579670960419132</v>
+        <v>1162648722.459661</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>5.77170565168462e-17</v>
+        <v>1.018042723140123e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1162648722.459661</v>
+        <v>78.01914957264374</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.018042723140123e-07</v>
+        <v>0.000189504033497663</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>78.01914957264374</v>
+        <v>13.7314140244898</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.000189504033497663</v>
+        <v>1.027028668623693</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>13.7314140244898</v>
+        <v>0.0357313135686823</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.027028668623693</v>
+        <v>3.019225591571203</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0357313135686823</v>
+        <v>0.9581929208033798</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.019225591571203</v>
+        <v>1.215737892526463</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9581929208033798</v>
+        <v>4</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.215737892526463</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>1.142587872127339</v>
       </c>
     </row>
@@ -9531,72 +9333,66 @@
         <v>1.502288717684987e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.5067090076938258</v>
+        <v>4.956051250975151e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.0465402974334</v>
+        <v>1.409967975240599e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>4.956051250975151e-07</v>
+        <v>-0.0522222727410128</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.409967975240599e-06</v>
+        <v>0.03494403109711337</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.0522222727410128</v>
+        <v>0.003947830324351897</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.03494403109711337</v>
+        <v>1.889790150865203</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.003947830324351897</v>
+        <v>1.994550956137479</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.917630494347656</v>
+        <v>3.680467700452362</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.994550956137479</v>
+        <v>5.466555960376924e-17</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.680467700452362</v>
+        <v>1259315888.447516</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>5.466555960376924e-17</v>
+        <v>9.430336536189792e-08</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1259315888.447516</v>
+        <v>86.69282671196015</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>9.430336536189792e-08</v>
+        <v>0.0002146332352618906</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>86.69282671196015</v>
+        <v>12.25054837022326</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0002146332352618906</v>
+        <v>1.353599523316553</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>12.25054837022326</v>
+        <v>0.03221128354367071</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.353599523316553</v>
+        <v>3.040539629590139</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.03221128354367071</v>
+        <v>0.9592030323726852</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.040539629590139</v>
+        <v>1.34756500149496</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9592030323726852</v>
+        <v>6</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.34756500149496</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.914876177425719</v>
       </c>
     </row>
@@ -9611,72 +9407,66 @@
         <v>1.460967729180223e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.53584357556442</v>
+        <v>4.816920657365575e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.020370173029948</v>
+        <v>1.402307153676022e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>4.816920657365575e-07</v>
+        <v>-0.05119918132557878</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.402307153676022e-06</v>
+        <v>0.03811088401238881</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05119918132557878</v>
+        <v>0.004073408998272229</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.03811088401238881</v>
+        <v>1.864797016144782</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.004073408998272229</v>
+        <v>1.848565319470633</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.865658694000666</v>
+        <v>6.096438252776846</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.848565319470633</v>
+        <v>1.000638136453365e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>6.096438252776846</v>
+        <v>715450295.8347079</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.000638136453365e-16</v>
+        <v>1.662679083034108e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>715450295.8347079</v>
+        <v>51.21957681585025</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.662679083034108e-07</v>
+        <v>0.0002325605396142533</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>51.21957681585025</v>
+        <v>10.10867452791627</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0002325605396142533</v>
+        <v>1.748464447316121</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>10.10867452791627</v>
+        <v>0.02376426867407472</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.748464447316121</v>
+        <v>2.917316387970612</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.02376426867407472</v>
+        <v>0.9606236250130612</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.917316387970612</v>
+        <v>1.459595826041044</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9606236250130612</v>
+        <v>5</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.459595826041044</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.4639967376608437</v>
       </c>
     </row>
@@ -9691,72 +9481,66 @@
         <v>1.418321579373507e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.5672920350016348</v>
+        <v>4.680555030570727e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.9877155130109063</v>
+        <v>1.394988463449081e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>4.680555030570727e-07</v>
+        <v>-0.05054227018023653</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.394988463449081e-06</v>
+        <v>0.04044927902463061</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05054227018023653</v>
+        <v>0.004190379708658223</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.04044927902463061</v>
+        <v>1.860325953000929</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.004190379708658223</v>
+        <v>1.753146864315407</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.850687015141129</v>
+        <v>4.420712015296077</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.753146864315407</v>
+        <v>2.51391918930309e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.420712015296077</v>
+        <v>288013358.9128143</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.51391918930309e-16</v>
+        <v>4.127373446099056e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>288013358.9128143</v>
+        <v>20.85338576250997</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>4.127373446099056e-07</v>
+        <v>0.0002384890735010192</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>20.85338576250997</v>
+        <v>10.09789181450876</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0002384890735010192</v>
+        <v>1.613625818944359</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>10.09789181450876</v>
+        <v>0.02431811530785839</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.613625818944359</v>
+        <v>2.667317464088207</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.02431811530785839</v>
+        <v>0.9601487579444369</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.667317464088207</v>
+        <v>1.563569794327496</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9601487579444369</v>
+        <v>5</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.563569794327496</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.239716749216138</v>
       </c>
     </row>
@@ -9771,72 +9555,66 @@
         <v>1.37502732946778e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.6002447315937426</v>
+        <v>4.547092236182004e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.9488466625055518</v>
+        <v>1.387945764076123e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.547092236182004e-07</v>
+        <v>-0.05038104808016896</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.387945764076123e-06</v>
+        <v>0.04201810190067751</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05038104808016896</v>
+        <v>0.004303498565289832</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.04201810190067751</v>
+        <v>1.857438122006918</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.004303498565289832</v>
+        <v>1.744717474593395</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.844344725498768</v>
+        <v>3.640403920212108</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.744717474593395</v>
+        <v>3.707119742275375e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.640403920212108</v>
+        <v>194760285.4326434</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.707119742275375e-16</v>
+        <v>6.09484287903137e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>194760285.4326434</v>
+        <v>14.06168674865046</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>6.09484287903137e-07</v>
+        <v>0.0002201200651889451</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>14.06168674865046</v>
+        <v>11.49044944479171</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0002201200651889451</v>
+        <v>1.195401445511671</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>11.49044944479171</v>
+        <v>0.02906254651586665</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.195401445511671</v>
+        <v>2.45740219076305</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.02906254651586665</v>
+        <v>0.9599550803992501</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.45740219076305</v>
+        <v>1.577411356070765</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9599550803992501</v>
+        <v>5</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.577411356070765</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1829961322311588</v>
       </c>
     </row>
@@ -9851,72 +9629,66 @@
         <v>1.331658022677111e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.6341752242068428</v>
+        <v>4.416111353017095e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.9042603586092168</v>
+        <v>1.381114679019105e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.416111353017095e-07</v>
+        <v>-0.05063158684963953</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.381114679019105e-06</v>
+        <v>0.04322117725698323</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05063158684963953</v>
+        <v>0.004431306222353372</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.04322117725698323</v>
+        <v>1.859396532616633</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.004431306222353372</v>
+        <v>1.734240957815146</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.83949392186222</v>
+        <v>3.39815573109504</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.734240957815146</v>
+        <v>4.254506634169358e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.39815573109504</v>
+        <v>171243366.9279146</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>4.254506634169358e-16</v>
+        <v>6.938109731779089e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>171243366.9279146</v>
+        <v>12.47603893969722</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>6.938109731779089e-07</v>
+        <v>0.0002135245246852333</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>12.47603893969722</v>
+        <v>12.69090878516442</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0002135245246852333</v>
+        <v>1.030228332361739</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>12.69090878516442</v>
+        <v>0.03439008182222812</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.030228332361739</v>
+        <v>2.274037998784514</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.03439008182222812</v>
+        <v>0.958884478873844</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.274037998784514</v>
+        <v>1.568258634300062</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.958884478873844</v>
+        <v>5</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.568258634300062</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1719235399594846</v>
       </c>
     </row>
@@ -9931,72 +9703,66 @@
         <v>1.288590613886264e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.668745062449122</v>
+        <v>4.287470509817652e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.8542786987632978</v>
+        <v>1.374449266037408e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>4.287470509817652e-07</v>
+        <v>-0.05116733509038574</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1.374449266037408e-06</v>
+        <v>0.04431920268243852</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.05116733509038574</v>
+        <v>0.004581914412557643</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.04431920268243852</v>
+        <v>1.859045715496763</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.004581914412557643</v>
+        <v>1.728869116810589</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.83367394353704</v>
+        <v>3.339879213179529</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.728869116810589</v>
+        <v>4.404273084596384e-16</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.339879213179529</v>
+        <v>166048837.0783654</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>4.404273084596384e-16</v>
+        <v>7.173459254175787e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>166048837.0783654</v>
+        <v>12.14355701110798</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>7.173459254175787e-07</v>
+        <v>0.000202428620248131</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>12.14355701110798</v>
+        <v>12.33443518721642</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.000202428620248131</v>
+        <v>1.047736427258581</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>12.33443518721642</v>
+        <v>0.03079714441250859</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.047736427258581</v>
+        <v>2.317736538075572</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.03079714441250859</v>
+        <v>0.9599085174013284</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.317736538075572</v>
+        <v>1.587386610354293</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9599085174013284</v>
+        <v>5</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.587386610354293</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.1700761008742597</v>
       </c>
     </row>
@@ -10011,72 +9777,66 @@
         <v>1.246013530244174e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.7036386500420658</v>
+        <v>4.161625364726755e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.7991230887588179</v>
+        <v>1.367922151245618e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>4.161625364726755e-07</v>
+        <v>-0.05187134823390146</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1.367922151245618e-06</v>
+        <v>0.04543823591490669</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.05187134823390146</v>
+        <v>0.004754870216655646</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.04543823591490669</v>
+        <v>1.854870274579498</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.004754870216655646</v>
+        <v>1.71646154817612</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.824123586064726</v>
+        <v>3.342812111309016</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.71646154817612</v>
+        <v>4.396548081088164e-16</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.342812111309016</v>
+        <v>161121600.663785</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>4.396548081088164e-16</v>
+        <v>7.353843736563952e-07</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>161121600.663785</v>
+        <v>11.41351364795554</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>7.353843736563952e-07</v>
+        <v>0.0001884742555422741</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>11.41351364795554</v>
+        <v>10.43437288860851</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001884742555422741</v>
+        <v>1.204577487127558</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>10.43437288860851</v>
+        <v>0.02052034897643135</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.204577487127558</v>
+        <v>2.601440022394349</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.02052034897643135</v>
+        <v>0.9592672140229178</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.601440022394349</v>
+        <v>1.609132920852375</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9592672140229178</v>
+        <v>5</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.609132920852375</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.163506992257632</v>
       </c>
     </row>
@@ -10091,72 +9851,66 @@
         <v>1.203961313917478e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.7385358304300047</v>
+        <v>4.038450128307895e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.7389911251024905</v>
+        <v>1.361521814079256e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>4.038450128307895e-07</v>
+        <v>-0.05264150093098587</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1.361521814079256e-06</v>
+        <v>0.04662708898703684</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.05264150093098587</v>
+        <v>0.004944811310685743</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.04662708898703684</v>
+        <v>1.855452178774291</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.004944811310685743</v>
+        <v>1.687279295757059</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.822205179653174</v>
+        <v>3.357222496859128</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.687279295757059</v>
+        <v>4.358886007796446e-16</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.357222496859128</v>
+        <v>160549586.5480138</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>4.358886007796446e-16</v>
+        <v>7.383118027931528e-07</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>160549586.5480138</v>
+        <v>11.23553856174898</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>7.383118027931528e-07</v>
+        <v>0.0002032477509426709</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>11.23553856174898</v>
+        <v>9.174389702562593</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0002032477509426709</v>
+        <v>1.533080806708097</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>9.174389702562593</v>
+        <v>0.01710724661687903</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.533080806708097</v>
+        <v>2.673448477767187</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01710724661687903</v>
+        <v>0.9603141284569686</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.673448477767187</v>
+        <v>1.608309360615212</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9603141284569686</v>
+        <v>8</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.608309360615212</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.1521907501983667</v>
       </c>
     </row>
@@ -10171,72 +9925,66 @@
         <v>1.162372258742791e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.7731713694850726</v>
+        <v>3.917647677738275e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.6740211152393525</v>
+        <v>1.355248625728771e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>3.917647677738275e-07</v>
+        <v>-0.05340637347634634</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1.355248625728771e-06</v>
+        <v>0.04791423785738911</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.05340637347634634</v>
+        <v>0.005147623118938682</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.04791423785738911</v>
+        <v>1.851953320419027</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.005147623118938682</v>
+        <v>1.660345391856615</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.820639341447835</v>
+        <v>3.380785557126912</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.660345391856615</v>
+        <v>4.298337494680788e-16</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>3.380785557126912</v>
+        <v>163776633.4617259</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>4.298337494680788e-16</v>
+        <v>7.241438840032155e-07</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>163776633.4617259</v>
+        <v>11.52933853487937</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>7.241438840032155e-07</v>
+        <v>0.0002130660630185061</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>11.52933853487937</v>
+        <v>10.18094199164935</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0002130660630185061</v>
+        <v>1.351774901285397</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>10.18094199164935</v>
+        <v>0.02208463404158808</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.351774901285397</v>
+        <v>2.545826211929398</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.02208463404158808</v>
+        <v>0.9601799010216757</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.545826211929398</v>
+        <v>1.62061209778399</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9601799010216757</v>
+        <v>8</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.62061209778399</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.1493172752533946</v>
       </c>
     </row>
@@ -10251,72 +9999,66 @@
         <v>1.121123395696183e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.8073255192462642</v>
+        <v>3.79930382186133e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.6044292016494377</v>
+        <v>1.349109670788141e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>3.79930382186133e-07</v>
+        <v>-0.05412854277060054</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1.349109670788141e-06</v>
+        <v>0.04933845051039091</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.05412854277060054</v>
+        <v>0.005363805598855776</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.04933845051039091</v>
+        <v>1.849602066584599</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.005363805598855776</v>
+        <v>1.637895623145897</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.821535504812686</v>
+        <v>3.422442791537411</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.637895623145897</v>
+        <v>4.194337432289859e-16</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3.422442791537411</v>
+        <v>169746570.1013755</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>4.194337432289859e-16</v>
+        <v>6.997072794265217e-07</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>169746570.1013755</v>
+        <v>12.08552112081965</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>6.997072794265217e-07</v>
+        <v>0.000216376545404239</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>12.08552112081965</v>
+        <v>12.2525551348591</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.000216376545404239</v>
+        <v>1.070119131754031</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>12.2525551348591</v>
+        <v>0.03248355210310362</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.070119131754031</v>
+        <v>2.291578675319367</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.03248355210310362</v>
+        <v>0.9607932903378689</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.291578675319367</v>
+        <v>1.613907456028256</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9607932903378689</v>
+        <v>8</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.613907456028256</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.155049438889062</v>
       </c>
     </row>
@@ -10331,72 +10073,66 @@
         <v>1.080041330226542e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.8408441400427238</v>
+        <v>3.682928626634158e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.5305665591361701</v>
+        <v>1.343117500744172e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>3.682928626634158e-07</v>
+        <v>-0.05474716088000558</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1.343117500744172e-06</v>
+        <v>0.05096130045106927</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.05474716088000558</v>
+        <v>0.005593936568781471</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.05096130045106927</v>
+        <v>1.853061846223913</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.005593936568781471</v>
+        <v>1.654638168915993</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.825690498232385</v>
+        <v>3.466525838730045</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.654638168915993</v>
+        <v>4.088338791326619e-16</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.466525838730045</v>
+        <v>180788513.2376871</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>4.088338791326619e-16</v>
+        <v>6.577573727694945e-07</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>180788513.2376871</v>
+        <v>13.36252541089659</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>6.577573727694945e-07</v>
+        <v>0.0002137939429515261</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>13.36252541089659</v>
+        <v>12.78240325519239</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0002137939429515261</v>
+        <v>1.018694732768184</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>12.78240325519239</v>
+        <v>0.0349317566306334</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.018694732768184</v>
+        <v>2.181175599455614</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.0349317566306334</v>
+        <v>0.9612892974730488</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.181175599455614</v>
+        <v>1.595838771089858</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9612892974730488</v>
+        <v>8</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.595838771089858</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.160216404150976</v>
       </c>
     </row>
@@ -10773,7 +10509,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.428772493115765</v>
+        <v>1.430155251889221</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.421945134247529</v>
@@ -10862,7 +10598,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.430958261770057</v>
+        <v>1.438524818189021</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.393611489817566</v>
@@ -10951,7 +10687,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.49016040711723</v>
+        <v>1.500443728258107</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.813879110394022</v>
@@ -11040,7 +10776,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.459647334461083</v>
+        <v>1.465235863539038</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.056113266659611</v>
@@ -11129,7 +10865,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.414133003172177</v>
+        <v>1.42449931520246</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.043443197752771</v>
@@ -11218,7 +10954,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.404937554011747</v>
+        <v>1.416143579935319</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.081229079037116</v>
@@ -11307,7 +11043,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.398584927904806</v>
+        <v>1.410267927626649</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.066319094021785</v>
@@ -11396,7 +11132,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.400233880436136</v>
+        <v>1.410053546930832</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.070251456004056</v>
@@ -11485,7 +11221,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.393169452369672</v>
+        <v>1.398089591506088</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.032885345408689</v>
@@ -11574,7 +11310,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.405550907063612</v>
+        <v>1.412724564363916</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.06361578631786</v>
@@ -11663,7 +11399,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.408974933466</v>
+        <v>1.411865426006782</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.002507648478453</v>
@@ -11752,7 +11488,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.414131140401352</v>
+        <v>1.416353497872732</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.05541708342266</v>
@@ -11841,7 +11577,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.406858555402053</v>
+        <v>1.40590742341804</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.021786490179177</v>
@@ -11930,7 +11666,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.409860544025881</v>
+        <v>1.405136059012879</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.074596569237513</v>
@@ -12019,7 +11755,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.410643212224936</v>
+        <v>1.410891997590461</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.082428985322168</v>
@@ -12108,7 +11844,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.408441512624943</v>
+        <v>1.406747083995697</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.048435157133433</v>
@@ -12197,7 +11933,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.409762832668705</v>
+        <v>1.405164028973647</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.062197417684997</v>
@@ -12286,7 +12022,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.398245223459865</v>
+        <v>1.395370558925265</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.035484836997846</v>
@@ -12375,7 +12111,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.459685391032585</v>
+        <v>1.446334508637743</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.889514710813406</v>
@@ -12464,7 +12200,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.484379407869854</v>
+        <v>1.474063854618471</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.546029516036687</v>
@@ -12553,7 +12289,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.507570818431795</v>
+        <v>1.494472208922392</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.500828835641991</v>
@@ -12642,7 +12378,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.528177924233118</v>
+        <v>1.512248288447215</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.591332527489518</v>
@@ -12731,7 +12467,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.510513713150369</v>
+        <v>1.496255289154489</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.728960521880056</v>
@@ -12820,7 +12556,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.533736320538801</v>
+        <v>1.523194409798542</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.674768242338768</v>
@@ -12909,7 +12645,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.541641423114535</v>
+        <v>1.525651267493806</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.525760491326454</v>
@@ -12998,7 +12734,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.530011882263412</v>
+        <v>1.515811188704233</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.478809293601967</v>
@@ -13087,7 +12823,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.540511815045254</v>
+        <v>1.527783754497562</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.341473701678907</v>
@@ -13176,7 +12912,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.538166176656364</v>
+        <v>1.532770471191363</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.53298957278512</v>
@@ -13265,7 +13001,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.541592136599044</v>
+        <v>1.530620219142603</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.466038896944589</v>
@@ -13354,7 +13090,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.460577258949393</v>
+        <v>1.452053377915234</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.094383164864146</v>
@@ -13443,7 +13179,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.46509210297702</v>
+        <v>1.459144354354944</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.110986412737696</v>
@@ -13532,7 +13268,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.471860770881404</v>
+        <v>1.462984652232956</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.131308064255791</v>
@@ -13621,7 +13357,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.481472851352907</v>
+        <v>1.471658204318681</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.125216819041599</v>
@@ -13710,7 +13446,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.471804787456071</v>
+        <v>1.457355351964841</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.167035374249316</v>
@@ -13799,7 +13535,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.484836921083784</v>
+        <v>1.468772849465283</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.117541122949458</v>
@@ -13888,7 +13624,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.482978078069386</v>
+        <v>1.469889349334935</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.181585148305431</v>
@@ -13977,7 +13713,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.471939341938525</v>
+        <v>1.460455199875913</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.11637328335062</v>
@@ -14066,7 +13802,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.483329728847136</v>
+        <v>1.470482593183854</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.098394895843753</v>
@@ -14155,7 +13891,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.478958737016268</v>
+        <v>1.464345887087219</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.127320795249944</v>
@@ -14244,7 +13980,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.472183149569382</v>
+        <v>1.459265375773318</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.134595573296527</v>
@@ -14333,7 +14069,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.490390737571287</v>
+        <v>1.46807981347942</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.176203559582106</v>
@@ -14422,7 +14158,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.421617679930451</v>
+        <v>1.408942776637452</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.029309500221375</v>
@@ -14511,7 +14247,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.413489192076964</v>
+        <v>1.397375020271585</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.989999982874847</v>
@@ -14600,7 +14336,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.430684244375191</v>
+        <v>1.411952718501577</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.917813177698672</v>
@@ -14689,7 +14425,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.47202433357811</v>
+        <v>1.456186037983527</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.962632437478726</v>
@@ -14778,7 +14514,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.44563635423101</v>
+        <v>1.434730010973071</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.005141184959536</v>
@@ -14867,7 +14603,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.449205497841544</v>
+        <v>1.436453329910337</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.942227982237233</v>
@@ -14956,7 +14692,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.44242636010607</v>
+        <v>1.440151957458643</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.979904279684701</v>
@@ -15045,7 +14781,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.451193488011221</v>
+        <v>1.451839358024813</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.97690361342746</v>
@@ -15134,7 +14870,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.447522103121982</v>
+        <v>1.452555922394465</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.975942359396394</v>
@@ -15223,7 +14959,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.44918655249539</v>
+        <v>1.452835007253012</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.968918358146442</v>
@@ -15312,7 +15048,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.453202036631904</v>
+        <v>1.456526581109939</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.932972406002456</v>
@@ -15401,7 +15137,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.407226127913137</v>
+        <v>1.412396745512854</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.029826011469431</v>
@@ -15490,7 +15226,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.400878985392386</v>
+        <v>1.407644118185684</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.045712695672514</v>
@@ -15579,7 +15315,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.407802963508751</v>
+        <v>1.412180144364848</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.092907167901374</v>
@@ -15668,7 +15404,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.432792391233943</v>
+        <v>1.436239814722814</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.974543915412903</v>
@@ -15757,7 +15493,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.445668884616141</v>
+        <v>1.459456835490248</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.045570431127853</v>
@@ -15846,7 +15582,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.47302262379176</v>
+        <v>1.482754749574594</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.03661053158269</v>
@@ -15935,7 +15671,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.477052419942712</v>
+        <v>1.480480829690124</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.102116208963691</v>
@@ -16024,7 +15760,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.461539821875787</v>
+        <v>1.466560790185385</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.116927747694921</v>
@@ -16113,7 +15849,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.458695235853483</v>
+        <v>1.462240524173573</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.072964172375519</v>
@@ -16202,7 +15938,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.443787219951917</v>
+        <v>1.452058572773379</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.999216452139084</v>
@@ -16291,7 +16027,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.436643322549735</v>
+        <v>1.443378921424542</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.076663846326237</v>
@@ -16380,7 +16116,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.421973190057546</v>
+        <v>1.430483024345553</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.072989430538671</v>
@@ -16469,7 +16205,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.416293675272829</v>
+        <v>1.423477795757013</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.047715346576191</v>
@@ -16558,7 +16294,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.413951935322125</v>
+        <v>1.42546539025318</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.147725790575322</v>
@@ -16647,7 +16383,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.389315765338314</v>
+        <v>1.402752089694737</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.906673092564354</v>
@@ -16736,7 +16472,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.406119501984606</v>
+        <v>1.418455015251069</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.095817391088631</v>
@@ -16825,7 +16561,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.416146521753155</v>
+        <v>1.429041175766764</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.084812194003658</v>
@@ -16914,7 +16650,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.401928285021371</v>
+        <v>1.410819186827037</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.131414031429549</v>
@@ -17003,7 +16739,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.389321181032805</v>
+        <v>1.393624340370432</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.157100270329187</v>
@@ -17092,7 +16828,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.39360436130208</v>
+        <v>1.394684816301704</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.108828996030769</v>
@@ -17181,7 +16917,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.385704033286658</v>
+        <v>1.389038007507755</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.103096796406632</v>
@@ -17270,7 +17006,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.377536391679889</v>
+        <v>1.383633420735394</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.094495935219619</v>
@@ -17359,7 +17095,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.397227957684151</v>
+        <v>1.399324079196429</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.145847047484836</v>
@@ -17448,7 +17184,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.395115955040223</v>
+        <v>1.399120468549603</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.27731018804859</v>
@@ -17537,7 +17273,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.406601920996357</v>
+        <v>1.406576610526975</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.073355711427366</v>
@@ -17626,7 +17362,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.412415789038155</v>
+        <v>1.410516989813845</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.104188820331065</v>
@@ -17715,7 +17451,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.408105558768626</v>
+        <v>1.405705541682782</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.100911159591176</v>
@@ -17804,7 +17540,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.41977224376995</v>
+        <v>1.411490949850196</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.024161869078927</v>
@@ -17893,7 +17629,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.420383829122652</v>
+        <v>1.408361072626161</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.17954567144236</v>
@@ -17982,7 +17718,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.453763959643558</v>
+        <v>1.436062533924631</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.525579991885925</v>
@@ -18071,7 +17807,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.46983431050701</v>
+        <v>1.454435407600787</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.522898026615258</v>
@@ -18160,7 +17896,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.431266390478694</v>
+        <v>1.420928473075206</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.371038872690085</v>
@@ -18249,7 +17985,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.442211784220043</v>
+        <v>1.433561091467009</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.545391098672844</v>
@@ -18338,7 +18074,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.437439715669545</v>
+        <v>1.432955767432145</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.52185009307821</v>
@@ -18427,7 +18163,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.440858548900647</v>
+        <v>1.436225047269637</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.444096167784447</v>
@@ -18713,7 +18449,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.230532111644441</v>
+        <v>1.204895101281038</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.045019293550797</v>
@@ -18802,7 +18538,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.226954992668404</v>
+        <v>1.202490930000154</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.121241944560237</v>
@@ -18891,7 +18627,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.241455620184267</v>
+        <v>1.21981042257832</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.032540439268032</v>
@@ -18980,7 +18716,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.246582105286309</v>
+        <v>1.225072992387067</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.015228723020215</v>
@@ -19069,7 +18805,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.249373195950032</v>
+        <v>1.227155404899629</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.92786713603833</v>
@@ -19158,7 +18894,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.246870769742267</v>
+        <v>1.222857454729205</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.045642147821629</v>
@@ -19247,7 +18983,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.253502406977281</v>
+        <v>1.233350263452348</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.993872265075009</v>
@@ -19336,7 +19072,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.254255033470966</v>
+        <v>1.235676379254771</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.023857034889251</v>
@@ -19425,7 +19161,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.270362616270367</v>
+        <v>1.244207388783409</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.054936217309096</v>
@@ -19514,7 +19250,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.299212499346358</v>
+        <v>1.270205055013414</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.186220225142115</v>
@@ -19603,7 +19339,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.307293949435159</v>
+        <v>1.27588965552775</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.945646813369189</v>
@@ -19692,7 +19428,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.329223364449134</v>
+        <v>1.294722269255127</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.105006235961701</v>
@@ -19781,7 +19517,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.316623991454819</v>
+        <v>1.281655352413019</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.022879743468362</v>
@@ -19870,7 +19606,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.328933234568962</v>
+        <v>1.286781733844977</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.15860445778514</v>
@@ -19959,7 +19695,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.332370611845201</v>
+        <v>1.300753739676908</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.939606838077554</v>
@@ -20048,7 +19784,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.335277999663787</v>
+        <v>1.300521612081351</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.048072010340268</v>
@@ -20137,7 +19873,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.345648807168507</v>
+        <v>1.303743763816885</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.151281128686615</v>
@@ -20226,7 +19962,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.336114256914176</v>
+        <v>1.297355898542111</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.126924233418434</v>
@@ -20315,7 +20051,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.339081928645771</v>
+        <v>1.298138750376367</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.127300111044887</v>
@@ -20404,7 +20140,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.334832001449124</v>
+        <v>1.294503077497782</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.156537113576649</v>
@@ -20493,7 +20229,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.352921321871384</v>
+        <v>1.30617110873727</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.0733359553132</v>
@@ -20582,7 +20318,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.352181297653115</v>
+        <v>1.307164464187691</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.998733244960887</v>
@@ -20671,7 +20407,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.335296374690344</v>
+        <v>1.290212302708475</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.057720851897059</v>
@@ -20760,7 +20496,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.352641233155266</v>
+        <v>1.313503568872787</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.081622784029942</v>
@@ -20849,7 +20585,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.351325862971771</v>
+        <v>1.310095905473118</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.108775801873116</v>
@@ -20938,7 +20674,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.340483888630664</v>
+        <v>1.295740210805941</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.103704510916836</v>
@@ -21027,7 +20763,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.339705265514486</v>
+        <v>1.293969639802561</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.971711809070008</v>
@@ -21116,7 +20852,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.342519574981536</v>
+        <v>1.296963475241423</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.041578977787355</v>
@@ -21205,7 +20941,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.35655540310569</v>
+        <v>1.308905854093943</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.956448341407239</v>
@@ -21294,7 +21030,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.352650929627612</v>
+        <v>1.305499554520702</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.142122583082354</v>
@@ -21383,7 +21119,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.353461099130531</v>
+        <v>1.309507516206168</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.073918902410621</v>
@@ -21472,7 +21208,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.35180537763466</v>
+        <v>1.309160791704366</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.100577491327824</v>
@@ -21561,7 +21297,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.355680630897287</v>
+        <v>1.311937848187585</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.067456871633061</v>
@@ -21650,7 +21386,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.341418319262935</v>
+        <v>1.294815739587938</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.00742787509259</v>
@@ -21739,7 +21475,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.360891455196891</v>
+        <v>1.307328030652364</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.031873276641929</v>
@@ -21828,7 +21564,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.355858345355125</v>
+        <v>1.307244929697249</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.156547092628965</v>
@@ -21917,7 +21653,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.356045761018628</v>
+        <v>1.302769175998445</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.048781782852856</v>
@@ -22006,7 +21742,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.372905047643559</v>
+        <v>1.320251459009244</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.063695046466884</v>
@@ -22095,7 +21831,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.374112882620018</v>
+        <v>1.322279670254291</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.047626648432731</v>
@@ -22184,7 +21920,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.378391863508288</v>
+        <v>1.326244016702826</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.01892085249437</v>
@@ -22273,7 +22009,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.393493030300924</v>
+        <v>1.344732804850066</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.981711919591605</v>
@@ -22362,7 +22098,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.370470640576755</v>
+        <v>1.322370835962398</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.04549571929782</v>
@@ -22451,7 +22187,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.386879730553436</v>
+        <v>1.328841644585075</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.992097562009289</v>
@@ -22540,7 +22276,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.375210539256893</v>
+        <v>1.326492729235659</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.069771051851057</v>
@@ -22629,7 +22365,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.374600840204705</v>
+        <v>1.323670217366683</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.007979116903612</v>
@@ -22718,7 +22454,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.379691995208774</v>
+        <v>1.326887857310454</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.026363330608068</v>
@@ -22807,7 +22543,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.394192796568925</v>
+        <v>1.3309341961045</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.949319934368704</v>
@@ -22896,7 +22632,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.384734219761272</v>
+        <v>1.333848654857462</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.110907333360799</v>
@@ -22985,7 +22721,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.40862958790927</v>
+        <v>1.359581844571274</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.048240672567141</v>
@@ -23074,7 +22810,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.404998059985723</v>
+        <v>1.366059676223953</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.040446961765328</v>
@@ -23163,7 +22899,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.403053070927606</v>
+        <v>1.361992605484294</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.102727193303376</v>
@@ -23252,7 +22988,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.390676528274451</v>
+        <v>1.355919454136233</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.070945822602442</v>
@@ -23341,7 +23077,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.392547174467132</v>
+        <v>1.349045433207599</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.030321965682824</v>
@@ -23430,7 +23166,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.368818716814489</v>
+        <v>1.32571959259625</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.05528631719898</v>
@@ -23519,7 +23255,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.348024461482192</v>
+        <v>1.307566881713344</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.060251397360601</v>
@@ -23608,7 +23344,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.351345017430166</v>
+        <v>1.306462672568539</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.052222899448667</v>
@@ -23697,7 +23433,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.361950934871122</v>
+        <v>1.317320320227802</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.075340729853765</v>
@@ -23786,7 +23522,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.37031072930898</v>
+        <v>1.326815795483884</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.954307521753963</v>
@@ -23875,7 +23611,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.373820008160619</v>
+        <v>1.323444741051515</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.053123479856038</v>
@@ -23964,7 +23700,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.369457978076532</v>
+        <v>1.313434435310783</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.087769048675753</v>
@@ -24053,7 +23789,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.345607363197889</v>
+        <v>1.297333771827758</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.12138836294444</v>
@@ -24142,7 +23878,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.358134596302983</v>
+        <v>1.310073458315109</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.97247895018721</v>
@@ -24231,7 +23967,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.333574494732929</v>
+        <v>1.288384583046078</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.001125580589962</v>
@@ -24320,7 +24056,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.254678377001577</v>
+        <v>1.217601899458698</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.646365205790067</v>
@@ -24409,7 +24145,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.238605502906372</v>
+        <v>1.200881398136274</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.639470025398767</v>
@@ -24498,7 +24234,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.242124124614859</v>
+        <v>1.2060966455967</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.644046111117043</v>
@@ -24587,7 +24323,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.252392124410356</v>
+        <v>1.218598452090698</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.643933978177476</v>
@@ -24676,7 +24412,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.242902140104952</v>
+        <v>1.211957533031819</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.669371217140686</v>
@@ -24765,7 +24501,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.251705717220218</v>
+        <v>1.220944638943238</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.651947621600196</v>
@@ -24854,7 +24590,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.261306089218117</v>
+        <v>1.229770231770713</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.644278589756858</v>
@@ -24943,7 +24679,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.251280774880261</v>
+        <v>1.219125628938486</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.655584539330912</v>
@@ -25032,7 +24768,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.25171706390868</v>
+        <v>1.221459930954091</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.662298995297027</v>
@@ -25121,7 +24857,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.246548864889015</v>
+        <v>1.219221747622159</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.657287759479956</v>
@@ -25210,7 +24946,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.246302185755194</v>
+        <v>1.222154284007809</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.652683276394151</v>
@@ -25299,7 +25035,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.251022952804659</v>
+        <v>1.225468905453674</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.677045166367813</v>
@@ -25388,7 +25124,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.250355701628961</v>
+        <v>1.230267167635899</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.66024554044536</v>
@@ -25477,7 +25213,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.25126698112766</v>
+        <v>1.23346266445891</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.64431733157954</v>
@@ -25566,7 +25302,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.264333473076466</v>
+        <v>1.244841939072566</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.653235073378147</v>
@@ -25655,7 +25391,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.333941070927398</v>
+        <v>1.310954296485351</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.834698336634763</v>
@@ -25744,7 +25480,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.362047825389707</v>
+        <v>1.332219448663225</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.055032785685581</v>
@@ -25833,7 +25569,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.365625154890239</v>
+        <v>1.334647093407278</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.151239711242355</v>
@@ -25922,7 +25658,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.339210330826858</v>
+        <v>1.310223335787527</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.021254264446986</v>
@@ -26011,7 +25747,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.357463181303043</v>
+        <v>1.330917787431263</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.190961320754293</v>
@@ -26100,7 +25836,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.363138114131206</v>
+        <v>1.329875668418999</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.189893217620774</v>
@@ -26189,7 +25925,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.360895097479985</v>
+        <v>1.328223234469904</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.140975782066528</v>
@@ -26278,7 +26014,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.352710784460808</v>
+        <v>1.323298453395993</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.000997477361586</v>
@@ -26367,7 +26103,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.344521589166135</v>
+        <v>1.317441056263088</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.987996597974626</v>
@@ -26653,7 +26389,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.50763447104736</v>
+        <v>1.485962447647018</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.349337504303017</v>
@@ -26742,7 +26478,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.529195751729515</v>
+        <v>1.508312134885303</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.130274407005706</v>
@@ -26831,7 +26567,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.607518108756983</v>
+        <v>1.579504674391268</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.235880793133803</v>
@@ -26920,7 +26656,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.617033973758069</v>
+        <v>1.592203259528095</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.437793667208136</v>
@@ -27009,7 +26745,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.595971612465324</v>
+        <v>1.574708668629764</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.177030787268478</v>
@@ -27098,7 +26834,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.599051595184257</v>
+        <v>1.573581553602875</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.798410150037819</v>
@@ -27187,7 +26923,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.588899392015334</v>
+        <v>1.566863845305117</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.10368704574276</v>
@@ -27276,7 +27012,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.599262089870757</v>
+        <v>1.57540881944919</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.809120408903324</v>
@@ -27365,7 +27101,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.598231805134363</v>
+        <v>1.560150279907401</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.182036690038198</v>
@@ -27454,7 +27190,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.617592161641005</v>
+        <v>1.570790918533896</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.791334099082872</v>
@@ -27543,7 +27279,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.613731398293709</v>
+        <v>1.559545261909728</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.584468657986259</v>
@@ -27632,7 +27368,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.615758897994778</v>
+        <v>1.563670216494032</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.09880930091957</v>
@@ -27721,7 +27457,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.618030289324363</v>
+        <v>1.567589751578537</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.022772127171839</v>
@@ -27810,7 +27546,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.629148728132783</v>
+        <v>1.577294572702355</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.947014362934723</v>
@@ -27899,7 +27635,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.635766198165246</v>
+        <v>1.580693265235295</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.928733171450231</v>
@@ -27988,7 +27724,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.637161752926387</v>
+        <v>1.581449331537494</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.835440068922121</v>
@@ -28077,7 +27813,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.623933702780916</v>
+        <v>1.572527132105353</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.723810771536708</v>
@@ -28166,7 +27902,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.613353958468262</v>
+        <v>1.560988292492517</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.709489062154058</v>
@@ -28255,7 +27991,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.614207336143433</v>
+        <v>1.560224018773404</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.698779413333206</v>
@@ -28344,7 +28080,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.621879081515312</v>
+        <v>1.569433923392822</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.825727174179421</v>
@@ -28433,7 +28169,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.642656972960409</v>
+        <v>1.588308995874286</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.016586120136314</v>
@@ -28522,7 +28258,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.652062248272421</v>
+        <v>1.594782496725732</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.098050022218545</v>
@@ -28611,7 +28347,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.643903712140403</v>
+        <v>1.588343912455497</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.335699974743001</v>
@@ -28700,7 +28436,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.649535024405688</v>
+        <v>1.604856481688416</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.029594235775571</v>
@@ -28789,7 +28525,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.650465981208796</v>
+        <v>1.604792484051766</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.047489250095745</v>
@@ -28878,7 +28614,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.656437132314438</v>
+        <v>1.616626489493827</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.090513968963803</v>
@@ -28967,7 +28703,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.66899556656528</v>
+        <v>1.62266513141917</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.295741049583913</v>
@@ -29056,7 +28792,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.671959402780316</v>
+        <v>1.626627517058042</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.362096494849768</v>
@@ -29145,7 +28881,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.679181890633829</v>
+        <v>1.624771997880383</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.559670570676402</v>
@@ -29234,7 +28970,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.672025897221067</v>
+        <v>1.620744630357015</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.428028339390686</v>
@@ -29323,7 +29059,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.684891209937524</v>
+        <v>1.63283061913518</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.180511893469195</v>
@@ -29412,7 +29148,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.698659235017717</v>
+        <v>1.641204164632586</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.299512860050992</v>
@@ -29501,7 +29237,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.717006582158513</v>
+        <v>1.651500022115886</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.946420513384731</v>
@@ -29590,7 +29326,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.709561394987489</v>
+        <v>1.636488420987022</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.647495718574072</v>
@@ -29679,7 +29415,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.711847687333678</v>
+        <v>1.635675811316173</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.888624469973868</v>
@@ -29768,7 +29504,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.714669229561599</v>
+        <v>1.640441195743785</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.372723103108002</v>
@@ -29857,7 +29593,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.711866804403212</v>
+        <v>1.638618777914691</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.531532369055616</v>
@@ -29946,7 +29682,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.702903442321427</v>
+        <v>1.636829271517103</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.59497855385477</v>
@@ -30035,7 +29771,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.703691283891438</v>
+        <v>1.636445710318553</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.040373259623176</v>
@@ -30124,7 +29860,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.70001398062693</v>
+        <v>1.632224598919422</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.4648213665308</v>
@@ -30213,7 +29949,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.703500540583009</v>
+        <v>1.629927250374593</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.186284293741378</v>
@@ -30302,7 +30038,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.6791558679341</v>
+        <v>1.616246812754108</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.231217154810104</v>
@@ -30391,7 +30127,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.670962697495311</v>
+        <v>1.607265564087592</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.816302269116808</v>
@@ -30480,7 +30216,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.659881552031054</v>
+        <v>1.610149946030607</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.660183874407047</v>
@@ -30569,7 +30305,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.665150686134945</v>
+        <v>1.613937569030963</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.827300619283301</v>
@@ -30658,7 +30394,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.654781909018476</v>
+        <v>1.612806477706592</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.761234743729576</v>
@@ -30747,7 +30483,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.653113847442604</v>
+        <v>1.615382268018823</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.758399467424259</v>
@@ -30836,7 +30572,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.652278847794293</v>
+        <v>1.62402910293377</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.685213313633713</v>
@@ -30925,7 +30661,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.664500858269624</v>
+        <v>1.643646685536676</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.800485438893147</v>
@@ -31014,7 +30750,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.666596135639682</v>
+        <v>1.647095553036953</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.007959618424192</v>
@@ -31103,7 +30839,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.663290398624285</v>
+        <v>1.642608847133025</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.748602122690419</v>
@@ -31192,7 +30928,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.665985223284</v>
+        <v>1.637386950089656</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.588526486124356</v>
@@ -31281,7 +31017,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.666486165831921</v>
+        <v>1.630778762319097</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.838192594866799</v>
@@ -31370,7 +31106,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.654397791244829</v>
+        <v>1.623952159279279</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.827891054284013</v>
@@ -31459,7 +31195,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.65265827880537</v>
+        <v>1.621780050536217</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.971908078585219</v>
@@ -31548,7 +31284,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.66381701780224</v>
+        <v>1.628546886125223</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.034923773940251</v>
@@ -31637,7 +31373,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.663783080938356</v>
+        <v>1.625281113437597</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.749746889630969</v>
@@ -31726,7 +31462,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.673838671706115</v>
+        <v>1.632233606066986</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.208333709566132</v>
@@ -31815,7 +31551,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.671481585551538</v>
+        <v>1.623662142090897</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.247137673380736</v>
@@ -31904,7 +31640,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.67357561459683</v>
+        <v>1.621174447836762</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.068824564948365</v>
@@ -31993,7 +31729,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.662684882145598</v>
+        <v>1.6087449848034</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.076214790519807</v>
@@ -32082,7 +31818,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.648192376931622</v>
+        <v>1.594799512554342</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.909525126825218</v>
@@ -32171,7 +31907,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.64931995807151</v>
+        <v>1.594583323509061</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.208524115644827</v>
@@ -32260,7 +31996,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.649375038323693</v>
+        <v>1.593681760303524</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.84919786025047</v>
@@ -32349,7 +32085,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.654525853318425</v>
+        <v>1.593332071045511</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.820544923233724</v>
@@ -32438,7 +32174,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.654693023534996</v>
+        <v>1.592307153302757</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.07849816199477</v>
@@ -32527,7 +32263,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.658843095418328</v>
+        <v>1.601356138961711</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.170592169675398</v>
@@ -32616,7 +32352,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.667971450711891</v>
+        <v>1.610776146542708</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.627987505073152</v>
@@ -32705,7 +32441,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.683229787128036</v>
+        <v>1.626017313566683</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.004029875133655</v>
@@ -32794,7 +32530,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.680695879528329</v>
+        <v>1.624079985986993</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.897531681636345</v>
@@ -32883,7 +32619,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.663561441931396</v>
+        <v>1.61488497148829</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.181824010094965</v>
@@ -32972,7 +32708,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.660548776528654</v>
+        <v>1.611797265464714</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.09300386168935</v>
@@ -33061,7 +32797,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.667411231489136</v>
+        <v>1.617612086175405</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.083650301540854</v>
@@ -33150,7 +32886,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.667638066116723</v>
+        <v>1.621287585820284</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.906203615915725</v>
@@ -33239,7 +32975,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.638397574921334</v>
+        <v>1.598433913008815</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.729271222452502</v>
@@ -33328,7 +33064,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.636599446223421</v>
+        <v>1.604000772740334</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.540527964908837</v>
@@ -33417,7 +33153,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.637455452718919</v>
+        <v>1.608293751446858</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.550109512524095</v>
@@ -33506,7 +33242,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.61084706780096</v>
+        <v>1.587562039457343</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.582119812098052</v>
@@ -33595,7 +33331,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.584442568296163</v>
+        <v>1.568521772085954</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.46299350108836</v>
@@ -33684,7 +33420,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.581654893041313</v>
+        <v>1.560374838451737</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.54588069061777</v>
@@ -33773,7 +33509,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.573467551815609</v>
+        <v>1.555544308946755</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.530684487107656</v>
@@ -33862,7 +33598,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.57016412533264</v>
+        <v>1.552019273365106</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.558382002411538</v>
@@ -33951,7 +33687,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.570518171455915</v>
+        <v>1.553903959293518</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.482249668063257</v>
@@ -34040,7 +33776,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.563421374022833</v>
+        <v>1.542794220381317</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.45237356185147</v>
@@ -34129,7 +33865,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.566453827910244</v>
+        <v>1.547480356339056</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.418037158730754</v>
@@ -34218,7 +33954,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.561073956870864</v>
+        <v>1.544338571779521</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.372190256013353</v>
@@ -34307,7 +34043,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.574113107062202</v>
+        <v>1.558637440718525</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.504243191434488</v>
@@ -34593,7 +34329,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.399212314061804</v>
+        <v>1.387573730598877</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.193235477733149</v>
@@ -34682,7 +34418,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.389281562556802</v>
+        <v>1.384661940543609</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.183156542985925</v>
@@ -34771,7 +34507,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.431392061799367</v>
+        <v>1.422843597002934</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.20456435050905</v>
@@ -34860,7 +34596,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.452916689183161</v>
+        <v>1.443663858989904</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.306254756320051</v>
@@ -34949,7 +34685,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.452280788853955</v>
+        <v>1.447393222360849</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.151542311855601</v>
@@ -35038,7 +34774,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.446857697403108</v>
+        <v>1.440314839921715</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.310234669162619</v>
@@ -35127,7 +34863,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.462867464265486</v>
+        <v>1.456382080038093</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.275459234515449</v>
@@ -35216,7 +34952,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.463106379481095</v>
+        <v>1.459178316979782</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.349753960708821</v>
@@ -35305,7 +35041,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.467389168057216</v>
+        <v>1.453336904973221</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.265844954181981</v>
@@ -35394,7 +35130,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.508835283609659</v>
+        <v>1.488140527485842</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.641011503938464</v>
@@ -35483,7 +35219,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.511360589879688</v>
+        <v>1.487437204917393</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.39545858873265</v>
@@ -35572,7 +35308,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.532768983926424</v>
+        <v>1.503218325372977</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.56816059208483</v>
@@ -35661,7 +35397,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.513270879810069</v>
+        <v>1.477564372656313</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.416112808377838</v>
@@ -35750,7 +35486,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.515113713303432</v>
+        <v>1.471695074464946</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.529368291095711</v>
@@ -35839,7 +35575,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.51738110494378</v>
+        <v>1.480674636925974</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.274102069286163</v>
@@ -35928,7 +35664,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.517401450774727</v>
+        <v>1.474591219110007</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.474477345950901</v>
@@ -36017,7 +35753,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.520233245016632</v>
+        <v>1.474911687700172</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.524571278089831</v>
@@ -36106,7 +35842,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.514389463217195</v>
+        <v>1.472592585125915</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.496210719514614</v>
@@ -36195,7 +35931,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.512231988647214</v>
+        <v>1.466067544157956</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.336166536164116</v>
@@ -36284,7 +36020,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.504493401208332</v>
+        <v>1.459575812761707</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.501394561706742</v>
@@ -36373,7 +36109,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.527904064223795</v>
+        <v>1.470631504876567</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.390672703767883</v>
@@ -36462,7 +36198,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.518685176056769</v>
+        <v>1.462075206732658</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.295985420397929</v>
@@ -36551,7 +36287,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.499454712247605</v>
+        <v>1.4482517706649</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.318971516251523</v>
@@ -36640,7 +36376,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.529555878633901</v>
+        <v>1.483951084364475</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.452915272998051</v>
@@ -36729,7 +36465,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.522285704416077</v>
+        <v>1.476388063516501</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.558401455642201</v>
@@ -36818,7 +36554,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.513290479841009</v>
+        <v>1.467740592006913</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.45250129940574</v>
@@ -36907,7 +36643,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.511429758358718</v>
+        <v>1.468587632224582</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.323338712792892</v>
@@ -36996,7 +36732,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.511060545199306</v>
+        <v>1.470133687351828</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.45871510695543</v>
@@ -37085,7 +36821,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.529801111066748</v>
+        <v>1.485395329522686</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.338483321733116</v>
@@ -37174,7 +36910,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.521943115975808</v>
+        <v>1.477044797497796</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.714883073307969</v>
@@ -37263,7 +36999,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.535894649006782</v>
+        <v>1.491487118318168</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.42963716758729</v>
@@ -37352,7 +37088,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.536055792968613</v>
+        <v>1.49420350466715</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.591336598188601</v>
@@ -37441,7 +37177,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.541083161790004</v>
+        <v>1.498657351549642</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.44736165213429</v>
@@ -37530,7 +37266,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.528549355817253</v>
+        <v>1.481475959694891</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.403221640102768</v>
@@ -37619,7 +37355,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.545245754175235</v>
+        <v>1.488667968757744</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.474403381234165</v>
@@ -37708,7 +37444,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.552101999654137</v>
+        <v>1.4995427845942</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.769844097719061</v>
@@ -37797,7 +37533,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.552814112422762</v>
+        <v>1.49630316815236</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.377197445147286</v>
@@ -37886,7 +37622,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.574846714467985</v>
+        <v>1.516532424424355</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.406245269508035</v>
@@ -37975,7 +37711,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.578714647777171</v>
+        <v>1.51923233685122</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.441247893602024</v>
@@ -38064,7 +37800,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.584620746073122</v>
+        <v>1.5252014830805</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.400516621643597</v>
@@ -38153,7 +37889,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.60904325540345</v>
+        <v>1.547028807021944</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.362245695534995</v>
@@ -38242,7 +37978,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.572125610155586</v>
+        <v>1.512484819725552</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.413853105311798</v>
@@ -38331,7 +38067,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.595599596728757</v>
+        <v>1.530800248774049</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.341674497284203</v>
@@ -38420,7 +38156,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.589804257366208</v>
+        <v>1.534625528234714</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.385350318469282</v>
@@ -38509,7 +38245,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.597442506651368</v>
+        <v>1.54322298499142</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.456384535500315</v>
@@ -38598,7 +38334,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.590017982405073</v>
+        <v>1.535879038604144</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.387372601522497</v>
@@ -38687,7 +38423,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.609434491042455</v>
+        <v>1.545204377400736</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.350509098757464</v>
@@ -38776,7 +38512,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.603342645476936</v>
+        <v>1.552903087383404</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.622611850711215</v>
@@ -38865,7 +38601,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.633361260242949</v>
+        <v>1.581709591443129</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.595895196297665</v>
@@ -38954,7 +38690,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.635042152589638</v>
+        <v>1.592898907395223</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.491289260222609</v>
@@ -39043,7 +38779,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.623774259475363</v>
+        <v>1.583126537885933</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.598661329957352</v>
@@ -39132,7 +38868,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.613552819172499</v>
+        <v>1.581097020550284</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.585356912964192</v>
@@ -39221,7 +38957,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.605824921977106</v>
+        <v>1.564334876553133</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.451746908314755</v>
@@ -39310,7 +39046,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.575862282028843</v>
+        <v>1.540706024429327</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.462992267592415</v>
@@ -39399,7 +39135,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.559989412782543</v>
+        <v>1.523334470583462</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.499587443145703</v>
@@ -39488,7 +39224,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.561919205117767</v>
+        <v>1.521061762282879</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.524954230632588</v>
@@ -39577,7 +39313,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.579607077403017</v>
+        <v>1.538790668669678</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.658116170698472</v>
@@ -39666,7 +39402,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.588064653722638</v>
+        <v>1.546325630874086</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.426804851486643</v>
@@ -39755,7 +39491,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.583006406586015</v>
+        <v>1.52975982796685</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.613426219605065</v>
@@ -39844,7 +39580,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.580114105589551</v>
+        <v>1.519901431517351</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.618386509146947</v>
@@ -39933,7 +39669,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.562471448047145</v>
+        <v>1.515547778408713</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.660350943797466</v>
@@ -40022,7 +39758,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.559620436191074</v>
+        <v>1.511139827065291</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.442295916996841</v>
@@ -40111,7 +39847,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.526232209713456</v>
+        <v>1.481333861222444</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.401456591537174</v>
@@ -40200,7 +39936,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.447150828337517</v>
+        <v>1.419531007782287</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.971032499290438</v>
@@ -40289,7 +40025,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.438066811343444</v>
+        <v>1.410621260340254</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.921189770633078</v>
@@ -40378,7 +40114,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.446023310696457</v>
+        <v>1.420078150592378</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.968392918844323</v>
@@ -40467,7 +40203,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.460857435791606</v>
+        <v>1.436860354996455</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.949739592692743</v>
@@ -40556,7 +40292,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.452341914651302</v>
+        <v>1.430442230739466</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.005852163306262</v>
@@ -40645,7 +40381,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.463977729149724</v>
+        <v>1.438407327172605</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.978929795518451</v>
@@ -40734,7 +40470,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.477463845729899</v>
+        <v>1.450824809289138</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.974809130193425</v>
@@ -40823,7 +40559,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.460204446588582</v>
+        <v>1.437742228560956</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.987767416902491</v>
@@ -40912,7 +40648,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.46162147330856</v>
+        <v>1.439678069507159</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.990011701715377</v>
@@ -41001,7 +40737,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.463440862556528</v>
+        <v>1.443387628317421</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.9967173768619</v>
@@ -41090,7 +40826,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.466853673785099</v>
+        <v>1.4524904479382</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.968923694677133</v>
@@ -41179,7 +40915,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.469060794823579</v>
+        <v>1.451375985389577</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.001521279300724</v>
@@ -41268,7 +41004,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.464024618669775</v>
+        <v>1.448631999175942</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.973891274044494</v>
@@ -41357,7 +41093,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.473683683851683</v>
+        <v>1.460094817521702</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.93869838710671</v>
@@ -41446,7 +41182,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.494769106454276</v>
+        <v>1.475900011111839</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.981786663613021</v>
@@ -41535,7 +41271,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.563930373907605</v>
+        <v>1.53569127439238</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.261595446025497</v>
@@ -41624,7 +41360,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.575847497047626</v>
+        <v>1.540667420852934</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.48594401556236</v>
@@ -41713,7 +41449,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.579853355174214</v>
+        <v>1.54193298287337</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.573197856934762</v>
@@ -41802,7 +41538,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.56191593938849</v>
+        <v>1.52835140656663</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.381728666485564</v>
@@ -41891,7 +41627,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.582292666501332</v>
+        <v>1.551378291516319</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.624480315918187</v>
@@ -41980,7 +41716,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.587498058487649</v>
+        <v>1.546545940933228</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.607436946855494</v>
@@ -42069,7 +41805,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.586168761249875</v>
+        <v>1.546293652537805</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.607943611703852</v>
@@ -42158,7 +41894,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.580243191415982</v>
+        <v>1.540148820634172</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.336677905859962</v>
@@ -42247,7 +41983,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.5692152447865</v>
+        <v>1.536452296693398</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.456646003846024</v>
@@ -42533,7 +42269,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.319121866098392</v>
+        <v>1.300066169529187</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.849672468225115</v>
@@ -42622,7 +42358,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.30790951219632</v>
+        <v>1.296960757777249</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.86413310558712</v>
@@ -42711,7 +42447,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.367657215743947</v>
+        <v>1.353826977377564</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.184886992978946</v>
@@ -42800,7 +42536,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.384193665442528</v>
+        <v>1.368176460228917</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.260454299824433</v>
@@ -42889,7 +42625,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.383641716721499</v>
+        <v>1.36467322000963</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.181185056232675</v>
@@ -42978,7 +42714,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.398022725332757</v>
+        <v>1.378057200202226</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.363645584930646</v>
@@ -43067,7 +42803,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.408417080348433</v>
+        <v>1.390210358928622</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.274763334845463</v>
@@ -43156,7 +42892,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.416223077922142</v>
+        <v>1.400460294036098</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.279485340075415</v>
@@ -43245,7 +42981,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.414186417916435</v>
+        <v>1.386747336585456</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.148698533881945</v>
@@ -43334,7 +43070,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.449518933153173</v>
+        <v>1.416174629885749</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.59102646214286</v>
@@ -43423,7 +43159,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.447683628686177</v>
+        <v>1.411875833810523</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.699079402177827</v>
@@ -43512,7 +43248,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.461360128924818</v>
+        <v>1.424801548539678</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.578708591661146</v>
@@ -43601,7 +43337,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.453155351000331</v>
+        <v>1.408204787099334</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.305916627282715</v>
@@ -43690,7 +43426,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.463753054269987</v>
+        <v>1.411378591668987</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.523307276067314</v>
@@ -43779,7 +43515,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.467793690788235</v>
+        <v>1.421116457889679</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.360868077532546</v>
@@ -43868,7 +43604,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.465456762200892</v>
+        <v>1.412836257193599</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.586793975912451</v>
@@ -43957,7 +43693,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.46347747938924</v>
+        <v>1.405297563095378</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.573303245153736</v>
@@ -44046,7 +43782,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.426659348923097</v>
+        <v>1.378545453830072</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.353736325974712</v>
@@ -44135,7 +43871,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.427536573307597</v>
+        <v>1.376979924973997</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.287694281747516</v>
@@ -44224,7 +43960,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.422914926694649</v>
+        <v>1.377461005291708</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.507271031853168</v>
@@ -44313,7 +44049,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.435260362167945</v>
+        <v>1.38466605885017</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.275893183804139</v>
@@ -44402,7 +44138,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.426664374554124</v>
+        <v>1.381494176953416</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.168079177517178</v>
@@ -44491,7 +44227,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.412318887732929</v>
+        <v>1.370280859296748</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.343537074030604</v>
@@ -44580,7 +44316,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.429511126026002</v>
+        <v>1.392000637100806</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.444684260948172</v>
@@ -44669,7 +44405,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.432536039724925</v>
+        <v>1.388820032922609</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.540556052513542</v>
@@ -44758,7 +44494,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.432648992171334</v>
+        <v>1.38841715656348</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.362676717887094</v>
@@ -44847,7 +44583,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.43340103062647</v>
+        <v>1.385604239836942</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.254920596803696</v>
@@ -44936,7 +44672,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.441086570832099</v>
+        <v>1.396025745576662</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.247602469917532</v>
@@ -45025,7 +44761,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.456225202476846</v>
+        <v>1.410246524319809</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.203101225149833</v>
@@ -45114,7 +44850,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.447127888730789</v>
+        <v>1.401110898845171</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.38343668715196</v>
@@ -45203,7 +44939,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.456392411408631</v>
+        <v>1.411260885404892</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.276473969576335</v>
@@ -45292,7 +45028,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.472006576717241</v>
+        <v>1.429351031515556</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.463259376397684</v>
@@ -45381,7 +45117,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.512225020947948</v>
+        <v>1.461949886013119</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.635273608316989</v>
@@ -45470,7 +45206,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.507838032409061</v>
+        <v>1.450289087863687</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.437156493066577</v>
@@ -45559,7 +45295,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.519827281647584</v>
+        <v>1.452509664522148</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.568344145582157</v>
@@ -45648,7 +45384,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.527250433624842</v>
+        <v>1.463069565253447</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.721275761229692</v>
@@ -45737,7 +45473,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.534597531747302</v>
+        <v>1.460968619924879</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.457069615814713</v>
@@ -45826,7 +45562,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.516953883027905</v>
+        <v>1.450401461428211</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.352598176275138</v>
@@ -45915,7 +45651,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.513043387446163</v>
+        <v>1.449320252377303</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.339284215368294</v>
@@ -46004,7 +45740,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.512754339137266</v>
+        <v>1.451520807155699</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.330977478470187</v>
@@ -46093,7 +45829,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.514104111924904</v>
+        <v>1.45413618416331</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.341018349871228</v>
@@ -46182,7 +45918,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.495257999715159</v>
+        <v>1.444631990081676</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.391917558440148</v>
@@ -46271,7 +46007,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.505707075909375</v>
+        <v>1.449078451938553</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.376602952279865</v>
@@ -46360,7 +46096,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.492981122838404</v>
+        <v>1.440807134443893</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.302221289988724</v>
@@ -46449,7 +46185,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.496688091191963</v>
+        <v>1.44653974548957</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.358607923913855</v>
@@ -46538,7 +46274,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.495811171641157</v>
+        <v>1.443477175721624</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.371072779127047</v>
@@ -46627,7 +46363,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.501745015687946</v>
+        <v>1.443534391755639</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.341291059720331</v>
@@ -46716,7 +46452,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.497643787132026</v>
+        <v>1.442423755451201</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.280765129581885</v>
@@ -46805,7 +46541,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.508885898859536</v>
+        <v>1.459015610863298</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.282784129620517</v>
@@ -46894,7 +46630,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.499376781481887</v>
+        <v>1.460548095250645</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.304972385633098</v>
@@ -46983,7 +46719,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.488907662290416</v>
+        <v>1.448171441346956</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.21749193029402</v>
@@ -47072,7 +46808,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.483161908206985</v>
+        <v>1.445345565090505</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.20214288515358</v>
@@ -47161,7 +46897,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.513671304210331</v>
+        <v>1.460078907378669</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.489061662815102</v>
@@ -47250,7 +46986,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.497497722797179</v>
+        <v>1.447857638747043</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.5563270850421</v>
@@ -47339,7 +47075,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.485453067097404</v>
+        <v>1.438883968806248</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.423308279861592</v>
@@ -47428,7 +47164,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.493536358973763</v>
+        <v>1.443028907047295</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.541081625411395</v>
@@ -47517,7 +47253,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.49923609997317</v>
+        <v>1.446230519660211</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.748129362942591</v>
@@ -47606,7 +47342,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.497853744667161</v>
+        <v>1.452398081607308</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.406633521531385</v>
@@ -47695,7 +47431,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.504359072201362</v>
+        <v>1.449971231570203</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.62269722231841</v>
@@ -47784,7 +47520,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.515745111948419</v>
+        <v>1.45537533594023</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.631863788385201</v>
@@ -47873,7 +47609,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.498481220389493</v>
+        <v>1.448506809281857</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.670759920775621</v>
@@ -47962,7 +47698,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.499852802110059</v>
+        <v>1.453958103213425</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.561103836977805</v>
@@ -48051,7 +47787,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.47554624614123</v>
+        <v>1.435304875240147</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.506083858079115</v>
@@ -48140,7 +47876,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.401550622713278</v>
+        <v>1.372926671515342</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.918751843671615</v>
@@ -48229,7 +47965,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.396394326151031</v>
+        <v>1.366793105227928</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.891426100850615</v>
@@ -48318,7 +48054,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.403941843384523</v>
+        <v>1.375707401691038</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.926662245892228</v>
@@ -48407,7 +48143,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.414298058109216</v>
+        <v>1.385726689050436</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.874172409061576</v>
@@ -48496,7 +48232,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.410187314389309</v>
+        <v>1.384155483058909</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.956415727894592</v>
@@ -48585,7 +48321,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.420496505121283</v>
+        <v>1.394402663114009</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.932477696843207</v>
@@ -48674,7 +48410,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.421401702102784</v>
+        <v>1.391928084450589</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.893192565079197</v>
@@ -48763,7 +48499,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.412871899626159</v>
+        <v>1.382857433592539</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.935882587130368</v>
@@ -48852,7 +48588,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.416959379462776</v>
+        <v>1.388407787650573</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.903356809038681</v>
@@ -48941,7 +48677,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.411362570811033</v>
+        <v>1.383275177468657</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.905779831227481</v>
@@ -49030,7 +48766,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.408008661205035</v>
+        <v>1.384968040303627</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.900273009467936</v>
@@ -49119,7 +48855,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.411267382707085</v>
+        <v>1.379936382614953</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.943956734490047</v>
@@ -49208,7 +48944,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.412986993114479</v>
+        <v>1.383616677855595</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.916568332040245</v>
@@ -49297,7 +49033,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.418040877742329</v>
+        <v>1.390045413199052</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.863788271952728</v>
@@ -49386,7 +49122,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.436036008547855</v>
+        <v>1.401120761315295</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.932836704258888</v>
@@ -49475,7 +49211,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.503949736490335</v>
+        <v>1.460037102827668</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.219140194701183</v>
@@ -49564,7 +49300,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.520468288420446</v>
+        <v>1.468076804510082</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.693883356643161</v>
@@ -49653,7 +49389,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.51426207610037</v>
+        <v>1.461610246257261</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.632826130670256</v>
@@ -49742,7 +49478,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.504812385303799</v>
+        <v>1.456953171817618</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.491326354468958</v>
@@ -49831,7 +49567,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.515249284875005</v>
+        <v>1.469613004232365</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.822036647240337</v>
@@ -49920,7 +49656,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.523832506147955</v>
+        <v>1.469128809397108</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.787528342195768</v>
@@ -50009,7 +49745,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.529600936221377</v>
+        <v>1.477398293912974</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.668772283301444</v>
@@ -50098,7 +49834,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.517848504326689</v>
+        <v>1.468733830285722</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.312167074081348</v>
@@ -50187,7 +49923,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.498726806787229</v>
+        <v>1.455142706876637</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.539568957425809</v>
@@ -50473,7 +50209,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.246016238308944</v>
+        <v>1.256507415607474</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.17463284476315</v>
@@ -50562,7 +50298,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.238324830020691</v>
+        <v>1.250851459056108</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.16797065815913</v>
@@ -50651,7 +50387,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.263746353363184</v>
+        <v>1.280514450022573</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.026513283450686</v>
@@ -50740,7 +50476,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.290056839094357</v>
+        <v>1.309988031262597</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.168516849609313</v>
@@ -50829,7 +50565,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.292789789503093</v>
+        <v>1.310021097360609</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.095001379754488</v>
@@ -50918,7 +50654,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.284700718887455</v>
+        <v>1.301457292430109</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.25788662543783</v>
@@ -51007,7 +50743,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.290634255054578</v>
+        <v>1.310726877398999</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.164120814207224</v>
@@ -51096,7 +50832,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.289780676387202</v>
+        <v>1.313354595218859</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.172149118468218</v>
@@ -51185,7 +50921,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.302356360802309</v>
+        <v>1.326336722830754</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.210632299419415</v>
@@ -51274,7 +51010,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.330550127158703</v>
+        <v>1.354590939465783</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.248232184493321</v>
@@ -51363,7 +51099,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.344691658895417</v>
+        <v>1.366165139555535</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.969889563598063</v>
@@ -51452,7 +51188,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.36745017783322</v>
+        <v>1.389390924172097</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.151539553238452</v>
@@ -51541,7 +51277,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.34994983435038</v>
+        <v>1.367611070120237</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.123881727968042</v>
@@ -51630,7 +51366,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.347873502814978</v>
+        <v>1.36008610136379</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.214749472063468</v>
@@ -51719,7 +51455,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.347895312266009</v>
+        <v>1.367872329501063</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.051016493473732</v>
@@ -51808,7 +51544,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.351417770921796</v>
+        <v>1.373311632974174</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.152223042667598</v>
@@ -51897,7 +51633,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.372435077740952</v>
+        <v>1.387955626751507</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.128290951144156</v>
@@ -51986,7 +51722,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.370641237997064</v>
+        <v>1.38558614634859</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.29513658803768</v>
@@ -52075,7 +51811,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.365828496688201</v>
+        <v>1.380452968215808</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.147424597912686</v>
@@ -52164,7 +51900,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.362444637294808</v>
+        <v>1.377512939041381</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.253200274139841</v>
@@ -52253,7 +51989,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.391317210875206</v>
+        <v>1.402699587993661</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.189359195207959</v>
@@ -52342,7 +52078,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.408199319156213</v>
+        <v>1.419504550125642</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.073076343556751</v>
@@ -52431,7 +52167,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.388186104385687</v>
+        <v>1.39711544359858</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.115850281495566</v>
@@ -52520,7 +52256,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.414235467782919</v>
+        <v>1.424384941295082</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.131824129224729</v>
@@ -52609,7 +52345,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.416613735697709</v>
+        <v>1.428565300527235</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.244225696289435</v>
@@ -52698,7 +52434,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.402787135692808</v>
+        <v>1.410607616958464</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.271097968574948</v>
@@ -52787,7 +52523,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.408250224075242</v>
+        <v>1.416076918647584</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.06173765898243</v>
@@ -52876,7 +52612,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.411164984043836</v>
+        <v>1.418751033262245</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.193202834425697</v>
@@ -52965,7 +52701,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.440476185170156</v>
+        <v>1.445810569440841</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.071542272680662</v>
@@ -53054,7 +52790,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.440089444153899</v>
+        <v>1.445008076324578</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.260535972917372</v>
@@ -53143,7 +52879,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.448139926343982</v>
+        <v>1.449841208819559</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.247994340242489</v>
@@ -53232,7 +52968,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.448863235101203</v>
+        <v>1.452680580176337</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.243764610036829</v>
@@ -53321,7 +53057,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.44663501441136</v>
+        <v>1.450447577822215</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.188672405143979</v>
@@ -53410,7 +53146,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.41498804064024</v>
+        <v>1.416940345631596</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.055874925118044</v>
@@ -53499,7 +53235,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.438217791386465</v>
+        <v>1.438447250701171</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.048839725424632</v>
@@ -53588,7 +53324,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.43798912100444</v>
+        <v>1.44182228782454</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.209800629479535</v>
@@ -53677,7 +53413,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.422369823397196</v>
+        <v>1.42755642011515</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.071230872671237</v>
@@ -53766,7 +53502,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.452640995411524</v>
+        <v>1.457809082097702</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.159505606249074</v>
@@ -53855,7 +53591,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.448454377359721</v>
+        <v>1.454591158971609</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.101750428783193</v>
@@ -53944,7 +53680,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.445335025691074</v>
+        <v>1.449260657474523</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.048483998768289</v>
@@ -54033,7 +53769,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.471686032667276</v>
+        <v>1.479123055980578</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.019964513216111</v>
@@ -54122,7 +53858,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.437781615828578</v>
+        <v>1.443433301828618</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.102898156251176</v>
@@ -54211,7 +53947,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.466647237520499</v>
+        <v>1.464385276093782</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.005213730814043</v>
@@ -54300,7 +54036,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.457989817574816</v>
+        <v>1.465034746223665</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.05601845996287</v>
@@ -54389,7 +54125,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.462781309726026</v>
+        <v>1.473016417620578</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.077346506815135</v>
@@ -54478,7 +54214,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.455158082419997</v>
+        <v>1.466744098361467</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.090569102894522</v>
@@ -54567,7 +54303,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.470417175653076</v>
+        <v>1.468965682752855</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.99116679347246</v>
@@ -54656,7 +54392,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.462649887698721</v>
+        <v>1.472030817946658</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.193750259194678</v>
@@ -54745,7 +54481,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.511847087138222</v>
+        <v>1.520025436028635</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.260966886787481</v>
@@ -54834,7 +54570,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.517454607699849</v>
+        <v>1.529181973489841</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.19002559190909</v>
@@ -54923,7 +54659,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.521622763942214</v>
+        <v>1.532007965053049</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.143564942536643</v>
@@ -55012,7 +54748,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.520192668661289</v>
+        <v>1.528554236529509</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.124008114199681</v>
@@ -55101,7 +54837,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.51851672880832</v>
+        <v>1.526952347930497</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.200348277387877</v>
@@ -55190,7 +54926,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.479990592689471</v>
+        <v>1.487120104910696</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.183976292199317</v>
@@ -55279,7 +55015,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.477023095879163</v>
+        <v>1.48263524563652</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.14990677695415</v>
@@ -55368,7 +55104,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.475063461272756</v>
+        <v>1.479076260596982</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.132123158008033</v>
@@ -55457,7 +55193,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.464060291584311</v>
+        <v>1.471014109166119</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.267188575991918</v>
@@ -55546,7 +55282,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.446551983177811</v>
+        <v>1.461091936596957</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.105221292152448</v>
@@ -55635,7 +55371,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.44097595726017</v>
+        <v>1.450875081712055</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.289349498830088</v>
@@ -55724,7 +55460,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.433841181042347</v>
+        <v>1.434630020353956</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.244800940338034</v>
@@ -55813,7 +55549,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.411267343151906</v>
+        <v>1.418809465068314</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.194571451891628</v>
@@ -55902,7 +55638,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.367661454597785</v>
+        <v>1.378598160690787</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.884196811550571</v>
@@ -55991,7 +55727,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.341865871245872</v>
+        <v>1.35354981527404</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.951875897212226</v>
@@ -56080,7 +55816,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.310365242231861</v>
+        <v>1.323305505311927</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.969470572560093</v>
@@ -56169,7 +55905,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.294866407199543</v>
+        <v>1.306353641231448</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.96411342829495</v>
@@ -56258,7 +55994,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.287509147555612</v>
+        <v>1.300891224789745</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.969033112633493</v>
@@ -56347,7 +56083,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.302705387650516</v>
+        <v>1.319802070387258</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.959918774694736</v>
@@ -56436,7 +56172,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.293151172635972</v>
+        <v>1.307398490456514</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.921363282099235</v>
@@ -56525,7 +56261,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.308427357350981</v>
+        <v>1.326822127319236</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.956957682839713</v>
@@ -56614,7 +56350,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.309378904984272</v>
+        <v>1.327163297641417</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.959734591361759</v>
@@ -56703,7 +56439,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.298989257066693</v>
+        <v>1.312761072535205</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.930067135373248</v>
@@ -56792,7 +56528,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.312965019777715</v>
+        <v>1.325030914576894</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.912511365609959</v>
@@ -56881,7 +56617,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.317786395125492</v>
+        <v>1.32895225126407</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.962053476183439</v>
@@ -56970,7 +56706,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.315382565202034</v>
+        <v>1.326449331919088</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.943321334308094</v>
@@ -57059,7 +56795,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.316711780075247</v>
+        <v>1.327998072143241</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.859479922980007</v>
@@ -57148,7 +56884,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.323299261074238</v>
+        <v>1.333188098482708</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.860086181849643</v>
@@ -57237,7 +56973,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.3743026366539</v>
+        <v>1.385824497618174</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.083013444039401</v>
@@ -57326,7 +57062,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.401989575878805</v>
+        <v>1.411325183302372</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.087566338222389</v>
@@ -57415,7 +57151,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.412026227682775</v>
+        <v>1.418547607240643</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.079882341244435</v>
@@ -57504,7 +57240,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.428990903637432</v>
+        <v>1.434880942286437</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.076024529218254</v>
@@ -57593,7 +57329,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.445279773557159</v>
+        <v>1.446715088055061</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.143707074670939</v>
@@ -57682,7 +57418,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.408871674128154</v>
+        <v>1.413649577737144</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.173343040979638</v>
@@ -57771,7 +57507,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.430995782963246</v>
+        <v>1.434666538320683</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.172347291335927</v>
@@ -57860,7 +57596,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.432841173261964</v>
+        <v>1.432321586119464</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.159772828880651</v>
@@ -57949,7 +57685,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.430433095896008</v>
+        <v>1.430622629357277</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.123302380556958</v>
@@ -58038,7 +57774,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.421555004575345</v>
+        <v>1.425117730379199</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.122681804185033</v>
@@ -58127,7 +57863,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.439161091536967</v>
+        <v>1.443688637953611</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.03796719782333</v>
